--- a/数仓各层表结构设计.xlsx
+++ b/数仓各层表结构设计.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-BJD3U0S\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE17CC3-3957-45A5-909B-AFA13ABAF8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE455B-4F29-4268-9871-45FE2D4DA99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="636" windowWidth="19668" windowHeight="10812" activeTab="3" xr2:uid="{BA3A49D1-9ECE-4F8F-AC1D-53B918821913}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BA3A49D1-9ECE-4F8F-AC1D-53B918821913}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="用户域" sheetId="3" r:id="rId3"/>
-    <sheet name="维表" sheetId="4" r:id="rId4"/>
+    <sheet name="维表" sheetId="4" r:id="rId3"/>
+    <sheet name="dwd层表" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="484">
   <si>
     <t>数据域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,10 +413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字段类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>口径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dwd_user_register_inc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,10 +433,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dim层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,9 +704,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>end_time</t>
-  </si>
-  <si>
     <t>活动名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -739,14 +724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>activity_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dim_activity_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>condition_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,110 +756,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活动类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dim_coupon_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coupon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coupon_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coupon_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operate_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range_desc </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物券编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物券名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物券类型 1 现金券 2 折扣券 3 满减券 4 满件打折券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满件数（4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减金额（1 3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣（2 4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围类型 1、商品(spuid) 2、品类(三级分类id) 3、品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最多领用次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以领取的开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以领取的结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围描述</t>
-  </si>
-  <si>
-    <t>expire_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过期时间</t>
   </si>
   <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满额数（3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taken_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已领用次数</t>
-  </si>
-  <si>
     <t>dim_paymode_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,10 +920,6 @@
   </si>
   <si>
     <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉链表：记录用户信息及变更记录(压缩)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1328,10 +1200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需自备文件csv格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quarter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1340,10 +1208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dim_date_info（按年分区）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1368,10 +1232,6 @@
   </si>
   <si>
     <t>date_format(${hivevar:date},'E')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>day()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1395,12 +1255,740 @@
     <t>分区字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>datediff(`date`,'2022-12-31')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_rule_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动规则id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefit_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim_activity_info_orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_type_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动类型编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activitye_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefit_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shyl_ods.ods_activity_info_full</t>
+  </si>
+  <si>
+    <t>shyl_ods.ods_activity_rule_full</t>
+  </si>
+  <si>
+    <t>shyl_ods.ods_base_dic_full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    , case rule.activity_type
+        when '3101' then concat( '满' , condition_amount , '元减' , benefit_amount , '元' )
+        when '3102' then concat( '满' , condition_num , '件打' , 10 * (1 - benefit_discount) , '折' )
+        when '3103' then concat( '打' , 10 * (1 - benefit_discount) , '折' )
+        end                benefit_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvl( create_time , date_sub( start_time , 1 ) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原表字段为空，创建时间取开始时间的前一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟数据没有该字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim_coupon_info_orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwd层表设计：shyl_dwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwd_coupon_use_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表设计模版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">id                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coupon_id         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_id          </t>
+  </si>
+  <si>
+    <t>coupon_status_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coupon_status     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_time          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">using_time        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">used_time         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">expire_time       </t>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用优惠券支付时间 </t>
+  </si>
+  <si>
+    <t>优惠券过期时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编号 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">优惠券id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">订单id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">优惠券状态编码 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">优惠券状态 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">优惠券获取时间 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">优惠券使用时间 </t>
+  </si>
+  <si>
+    <t>shyl_ods.ods_coupon_use_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shyl_ods.ods_base_dic_full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析data字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录用户信息及变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim层：shyl_dim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量表（注意表数据更新方式）/全量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量表（注意表数据更新方式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录地区信息，后续可视化使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全量表（一次更新即可，地区信息一般长时间不会变化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录电商的各种活动信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录优惠券相关的各种信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录用户订单的支付信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全量表（每年添加一次即可，现只有2023年数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录2023年的基本时间信息，方便使用(需自备文件csv格式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim_date_info_orc（按年分区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录购物券使用信息及变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon_type_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coupon_id       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coupon_name     </t>
+  </si>
+  <si>
+    <t>coupon_type_name</t>
+  </si>
+  <si>
+    <t>condition_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition_num   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activity_id     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">benefit_amount  </t>
+  </si>
+  <si>
+    <t>benefit_discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benefit_rule    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_time     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">range_type_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit_num       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken_count     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_time      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_time        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">operate_time    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">expire_time     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">购物券id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">购物券名称 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">购物券类型编码 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">购物券类型 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">满减金额 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">满减件数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">活动id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">优惠金额 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">优惠折扣 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">优惠规则 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">创建时间 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">范围类型编码 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">范围类型：1.商品 2.品类 3.品牌 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">最多领用次数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">已领用次数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">开始领取时间 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">结束领取时间 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改时间 </t>
+  </si>
+  <si>
+    <t>shyl_ods.ods_coupon_info_full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range_type_code   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_code = '32'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_code = '33'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务事实表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务过程：加购物车+购物车取消+下单+取消订单+支付成功+退单+退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">id              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_id          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cart_pirce      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_num         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_name        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_cart_time   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_id       </t>
+  </si>
+  <si>
+    <t>source_type_code</t>
+  </si>
+  <si>
+    <t>source_type_name</t>
+  </si>
+  <si>
+    <t>加入购物车时价格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添加购物车时间 </t>
+  </si>
+  <si>
+    <t>来源类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku数量 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku名称 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">来源类型id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">来源类型编码 </t>
+  </si>
+  <si>
+    <t>shyl_ods.ods_cart_info_inc</t>
+  </si>
+  <si>
+    <t>交易域的用户删除购物车商品的行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易域的用户加购物车行为信息记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次取消操作[减少数量也算加购操作]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次加购操作[增加数量也算加购操作]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwd_trade_cart_cancel_inc【模拟数据没有】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ods_payment_info_inc</t>
+  </si>
+  <si>
+    <t>dwd_trade_payment_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录用户支付信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">out_trade_no    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_id        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment_type    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade_no        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_amount    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment_status  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">callback_time   </t>
+  </si>
+  <si>
+    <t>callback_content</t>
+  </si>
+  <si>
+    <t>对外业务编号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">订单标号 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">支付类型 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">交易编号 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">支付金额 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">交易内容 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">支付状态 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">回调时间 </t>
+  </si>
+  <si>
+    <t>回调信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编号 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析data字段</t>
+  </si>
+  <si>
+    <t>decimal(16,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_id </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用阿里命名规范：dwd_{业务板块/pub}_{数据域缩写}_{业务过程缩写}[_{自定义表命名标签缩写}] _{单分区增量全量标识}，pub表示数据包括多个业务板块的数据。单分区增量全量标识通常为：i表示增量，f表示全量。例如： dwd_asale_trd_ordcrt_trip_di（A电商公司航旅机票订单下单事实表，日刷新增量）及dwd_asale_itm_item_df（A电商商品快照事实表，日刷新全量）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwd_trade_cart_add_di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwd_trade_order_di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务事实表用来描述业务过程，跟踪空间或时间上某点的度量事件，保存的是最原子的数据，也称为原子事实表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期快照事实表以具有规律性的、可预见的时间间隔记录事实。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积快照事实表用来表述过程开始和结束之间的关键步骤事件，覆盖过程的整个生命周期，通常具有多个日期字段来记录关键时间点。当累积快照事实表随着生命周期不断变化时，记录也会随着过程的变化而被修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实表中一条记录所表达的业务细节程度被称为粒度。通常粒度可以通过两种方式来表述：一种是维度属性组合所表示的细节程度，一种是所表示的具体业务含义。
+作为度量业务过程的事实，通常为整型或浮点型的十进制数值，有可加性、半可加性和不可加性三种类型：
+可加性事实是指可以按照与事实表关联的任意维度进行汇总。
+半可加性事实只能按照特定维度汇总，不能对所有维度汇总。例如库存可以按照地点和商品进行汇总，而按时间维度把一年中每个月的库存累加则毫无意义。
+完全不可加性，例如比率型事实。对于不可加性的事实，可分解为可加的组件来实现聚集。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">明细粒度事实表设计原则如下所示：
+通常，一个明细粒度事实表仅和一个维度关联。
+尽可能包含所有与业务过程相关的事实 。
+只选择与业务过程相关的事实。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分解不可加性事实为可加的组件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+在选择维度和事实之前必须先声明粒度。
+在同一个事实表中不能有多种不同粒度的事实。
+事实的单位要保持一致。
+谨慎处理Null值。
+使用退化维度提高事实表的易用性。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看具体需求，模拟数据的中的该字段都为null，所以这里不添加该字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">地区id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_id </t>
+  </si>
+  <si>
+    <t>交易域的订单表(记录一次用户下订单的操作)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ods_order_detail_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">order_id             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_id               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_name             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_num              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_id          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activity_id          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activity_rule_id     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coupon_id            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_id            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_type_code     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_type_name     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_time          </t>
+  </si>
+  <si>
+    <t>split_original_amount</t>
+  </si>
+  <si>
+    <t>split_activity_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">split_coupon_amount  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">split_total_amount   </t>
+  </si>
+  <si>
+    <t>DECIMAL(16 , 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRING  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">int  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与活动规则id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用优惠券id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">优惠券优惠分摊 </t>
+  </si>
+  <si>
+    <t>最终价格分摊</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sku数量 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">来源编号 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">来源类型名称 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">原始价格 </t>
+  </si>
+  <si>
+    <t>DECIMAL(16,  2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">活动优惠分摊 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ods_order_info_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ods_order_detail_activity_inc</t>
+  </si>
+  <si>
+    <t>ods_order_detail_activity_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ods_order_detail_coupon_inc</t>
+  </si>
+  <si>
+    <t>ods_base_dic_full</t>
+  </si>
+  <si>
+    <t>dwd_trade_order_cancel_di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录用户取消订单的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1449,8 +2037,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1553,8 +2174,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1614,13 +2259,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1654,9 +2317,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1684,6 +2344,78 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1702,16 +2434,157 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,23 +2596,74 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2058,10 +2982,10 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2077,36 +3001,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="9" t="s">
         <v>32</v>
       </c>
@@ -2140,10 +3064,10 @@
       <c r="N2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2174,7 +3098,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +3133,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2244,7 +3168,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2281,7 +3205,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2316,7 +3240,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2349,7 +3273,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2384,7 +3308,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
@@ -2421,7 +3345,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2458,7 +3382,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
@@ -2491,7 +3415,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2522,7 +3446,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2551,7 +3475,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2584,7 +3508,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2615,7 +3539,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
@@ -2644,7 +3568,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
@@ -2673,7 +3597,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2704,7 +3628,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
@@ -2753,10 +3677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA29E3F-9A0F-4CE3-88F4-9F65042AA41E}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2766,32 +3690,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="27"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" t="s">
         <v>32</v>
       </c>
@@ -2822,8 +3746,8 @@
       <c r="L2" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2933,8 +3857,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>219</v>
+      <c r="A7" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -2962,7 +3886,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>78</v>
       </c>
@@ -2993,7 +3917,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -3016,7 +3940,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -3229,12 +4153,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -3242,7 +4166,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -3250,7 +4174,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3258,7 +4182,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -3266,7 +4190,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -3274,36 +4198,119 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
         <v>122</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
         <v>124</v>
       </c>
-      <c r="B26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" t="s">
-        <v>127</v>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="B33:G33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="C1:L1"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3311,116 +4318,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26043A21-114E-4D34-A38B-ABDF8903637D}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4DB821-BF5C-4585-A44C-FB071D9BA191}">
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4DB821-BF5C-4585-A44C-FB071D9BA191}">
-  <dimension ref="A1:G133"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3432,1949 +4334,3917 @@
     <col min="7" max="7" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="C9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="B26" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="97"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="94"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="92" t="s">
+        <v>330</v>
+      </c>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="C29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="112"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
+      <c r="B54" s="104" t="s">
+        <v>331</v>
+      </c>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="106"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G55" s="5"/>
+      <c r="B55" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C55" s="108"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="109"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G56" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
-        <v>285</v>
+        <v>97</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="G60" s="5"/>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F65" s="20" t="s">
+      <c r="B66" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="81"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="B67" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="63"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
+      <c r="A68" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="66"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
+        <v>261</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
+        <v>281</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G70" s="19"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
+        <v>163</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71" s="19"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
+        <v>167</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
+        <v>286</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G73" s="19"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
+        <v>286</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G74" s="19"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
+        <v>168</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G75" s="19"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G76" s="19"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G78" s="19"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="C79" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="B86" s="88" t="s">
+        <v>297</v>
+      </c>
+      <c r="C86" s="89"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
+      <c r="G86" s="90"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+      <c r="B87" s="85" t="s">
+        <v>334</v>
+      </c>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="87"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="A88" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="82" t="s">
+        <v>328</v>
+      </c>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="84"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
+        <v>261</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>194</v>
+        <v>341</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>192</v>
+        <v>342</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+        <v>359</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+        <v>360</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>116</v>
+        <v>343</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+        <v>361</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+        <v>362</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>170</v>
+        <v>345</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+        <v>363</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+        <v>364</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C111" s="71"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="72"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="C112" s="68"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="69"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="69"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="C120" s="77"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="78"/>
+    </row>
+    <row r="121" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" s="73" t="s">
+        <v>337</v>
+      </c>
+      <c r="C121" s="74"/>
+      <c r="D121" s="74"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="75"/>
+    </row>
+    <row r="122" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B122" s="73" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" s="74"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="75"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="B123" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+    </row>
+    <row r="125" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F125" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="G125" s="14"/>
+    </row>
+    <row r="126" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C126" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D126" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B99" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B106" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="G109" s="15"/>
-    </row>
-    <row r="110" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="F110" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="G110" s="15"/>
-    </row>
-    <row r="111" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F111" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="G111" s="15"/>
-    </row>
-    <row r="112" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F112" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="G112" s="15"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B127" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="14"/>
+      <c r="E126" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F126" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G126" s="14"/>
+    </row>
+    <row r="127" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F127" s="20" t="s">
+        <v>273</v>
+      </c>
       <c r="G127" s="14"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
+    <row r="128" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>275</v>
+      </c>
       <c r="G128" s="14"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="14" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>92</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C130" s="14"/>
+        <v>276</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="D130" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="E130" s="14"/>
+        <v>213</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>269</v>
+      </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C131" s="14"/>
+        <v>268</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="D131" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E131" s="14"/>
+        <v>277</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>270</v>
+      </c>
       <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
-      <c r="B132" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
-      <c r="B133" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
+      <c r="G131" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B134" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="C134" s="59"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="60"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B135" s="55"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="56"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="57"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B136" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="C136" s="56"/>
+      <c r="D136" s="56"/>
+      <c r="E136" s="56"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="57"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
+      <c r="B137" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="13"/>
+      <c r="B138" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="13"/>
+      <c r="B139" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
+      <c r="B140" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+      <c r="B141" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B99:E99"/>
+  <mergeCells count="25">
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B120:G120"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52709C3D-F143-4526-A448-DCEA8A17C609}">
+  <dimension ref="A1:M105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104:G104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+    </row>
+    <row r="5" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+    </row>
+    <row r="6" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="119" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+    </row>
+    <row r="7" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="119" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="118"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+    </row>
+    <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="27" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="114" t="s">
+        <v>407</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
+    </row>
+    <row r="28" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="114" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
+    </row>
+    <row r="29" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="114" t="s">
+        <v>405</v>
+      </c>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
+    </row>
+    <row r="30" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="114" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
+    </row>
+    <row r="31" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G32" s="40"/>
+    </row>
+    <row r="33" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G33" s="40"/>
+    </row>
+    <row r="34" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G34" s="40"/>
+    </row>
+    <row r="35" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G35" s="40"/>
+    </row>
+    <row r="36" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G36" s="40"/>
+    </row>
+    <row r="37" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G37" s="40"/>
+    </row>
+    <row r="38" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G38" s="40"/>
+    </row>
+    <row r="39" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G39" s="40"/>
+    </row>
+    <row r="40" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G40" s="40"/>
+    </row>
+    <row r="41" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G41" s="40"/>
+    </row>
+    <row r="42" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G42" s="40"/>
+    </row>
+    <row r="43" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G43" s="40"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="113" t="s">
+        <v>432</v>
+      </c>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="120" t="s">
+        <v>401</v>
+      </c>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="122"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="120" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="122"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="120" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="122"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G59" s="37"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G60" s="37"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G61" s="37"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G62" s="37"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G63" s="37"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G64" s="37"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G65" s="37"/>
+    </row>
+    <row r="66" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="B66" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="F66" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="G66" s="43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G67" s="37"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="37"/>
+      <c r="B68" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="E68" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F68" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G68" s="37"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="37"/>
+      <c r="B69" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G69" s="37"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="123" t="s">
+        <v>404</v>
+      </c>
+      <c r="C71" s="124"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="124"/>
+      <c r="G71" s="125"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="50" t="s">
+        <v>400</v>
+      </c>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="52"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="52"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="52"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="81"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="C79" s="65"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="66"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="66"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="66"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G82" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="126"/>
+      <c r="B83" s="126" t="s">
+        <v>445</v>
+      </c>
+      <c r="C83" s="126" t="s">
+        <v>466</v>
+      </c>
+      <c r="D83" s="126" t="s">
+        <v>314</v>
+      </c>
+      <c r="E83" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="F83" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G83" s="126"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="126"/>
+      <c r="B84" s="126" t="s">
+        <v>446</v>
+      </c>
+      <c r="C84" s="126" t="s">
+        <v>463</v>
+      </c>
+      <c r="D84" s="126" t="s">
+        <v>442</v>
+      </c>
+      <c r="E84" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="F84" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G84" s="126"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="126"/>
+      <c r="B85" s="126" t="s">
+        <v>447</v>
+      </c>
+      <c r="C85" s="126" t="s">
+        <v>463</v>
+      </c>
+      <c r="D85" s="126" t="s">
+        <v>396</v>
+      </c>
+      <c r="E85" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="F85" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G85" s="126"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="126"/>
+      <c r="B86" s="126" t="s">
+        <v>448</v>
+      </c>
+      <c r="C86" s="126" t="s">
+        <v>465</v>
+      </c>
+      <c r="D86" s="126" t="s">
+        <v>471</v>
+      </c>
+      <c r="E86" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="F86" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G86" s="126"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="126"/>
+      <c r="B87" s="126" t="s">
+        <v>449</v>
+      </c>
+      <c r="C87" s="126" t="s">
+        <v>463</v>
+      </c>
+      <c r="D87" s="126" t="s">
+        <v>316</v>
+      </c>
+      <c r="E87" s="126" t="s">
+        <v>477</v>
+      </c>
+      <c r="F87" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G87" s="126"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="126"/>
+      <c r="B88" s="126" t="s">
+        <v>450</v>
+      </c>
+      <c r="C88" s="126" t="s">
+        <v>463</v>
+      </c>
+      <c r="D88" s="126" t="s">
+        <v>441</v>
+      </c>
+      <c r="E88" s="126" t="s">
+        <v>477</v>
+      </c>
+      <c r="F88" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G88" s="126"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="126"/>
+      <c r="B89" s="126" t="s">
+        <v>451</v>
+      </c>
+      <c r="C89" s="126" t="s">
+        <v>463</v>
+      </c>
+      <c r="D89" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" s="126" t="s">
+        <v>479</v>
+      </c>
+      <c r="F89" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G89" s="126"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="126"/>
+      <c r="B90" s="126" t="s">
+        <v>452</v>
+      </c>
+      <c r="C90" s="126" t="s">
+        <v>464</v>
+      </c>
+      <c r="D90" s="126" t="s">
+        <v>467</v>
+      </c>
+      <c r="E90" s="126" t="s">
+        <v>478</v>
+      </c>
+      <c r="F90" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G90" s="126"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="126"/>
+      <c r="B91" s="126" t="s">
+        <v>453</v>
+      </c>
+      <c r="C91" s="126" t="s">
+        <v>464</v>
+      </c>
+      <c r="D91" s="126" t="s">
+        <v>468</v>
+      </c>
+      <c r="E91" s="126" t="s">
+        <v>480</v>
+      </c>
+      <c r="F91" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G91" s="126"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="126"/>
+      <c r="B92" s="126" t="s">
+        <v>454</v>
+      </c>
+      <c r="C92" s="126" t="s">
+        <v>464</v>
+      </c>
+      <c r="D92" s="126" t="s">
+        <v>472</v>
+      </c>
+      <c r="E92" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="F92" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G92" s="126"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="126"/>
+      <c r="B93" s="126" t="s">
+        <v>455</v>
+      </c>
+      <c r="C93" s="126" t="s">
+        <v>464</v>
+      </c>
+      <c r="D93" s="126" t="s">
+        <v>398</v>
+      </c>
+      <c r="E93" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="F93" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G93" s="126"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="126"/>
+      <c r="B94" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="C94" s="126" t="s">
+        <v>464</v>
+      </c>
+      <c r="D94" s="126" t="s">
+        <v>473</v>
+      </c>
+      <c r="E94" s="126" t="s">
+        <v>481</v>
+      </c>
+      <c r="F94" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G94" s="126"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="126"/>
+      <c r="B95" s="126" t="s">
+        <v>457</v>
+      </c>
+      <c r="C95" s="126" t="s">
+        <v>463</v>
+      </c>
+      <c r="D95" s="126" t="s">
+        <v>368</v>
+      </c>
+      <c r="E95" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="F95" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G95" s="126"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="126"/>
+      <c r="B96" s="126" t="s">
+        <v>458</v>
+      </c>
+      <c r="C96" s="126" t="s">
+        <v>475</v>
+      </c>
+      <c r="D96" s="126" t="s">
+        <v>474</v>
+      </c>
+      <c r="E96" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="F96" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G96" s="126"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="126"/>
+      <c r="B97" s="126" t="s">
+        <v>459</v>
+      </c>
+      <c r="C97" s="126" t="s">
+        <v>462</v>
+      </c>
+      <c r="D97" s="126" t="s">
+        <v>476</v>
+      </c>
+      <c r="E97" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="F97" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G97" s="126"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="126"/>
+      <c r="B98" s="126" t="s">
+        <v>460</v>
+      </c>
+      <c r="C98" s="126" t="s">
+        <v>462</v>
+      </c>
+      <c r="D98" s="126" t="s">
+        <v>469</v>
+      </c>
+      <c r="E98" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="F98" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G98" s="126"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="126"/>
+      <c r="B99" s="126" t="s">
+        <v>461</v>
+      </c>
+      <c r="C99" s="126" t="s">
+        <v>462</v>
+      </c>
+      <c r="D99" s="126" t="s">
+        <v>470</v>
+      </c>
+      <c r="E99" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="F99" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G99" s="126"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="52"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="52"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="52"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="52"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="23"/>
+      <c r="B105" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数仓各层表结构设计.xlsx
+++ b/数仓各层表结构设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-BJD3U0S\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C724065-730A-4E2D-B241-43289FAC0696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43085BF4-A57B-4D36-AE29-9347425D03B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{BA3A49D1-9ECE-4F8F-AC1D-53B918821913}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{BA3A49D1-9ECE-4F8F-AC1D-53B918821913}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="维表" sheetId="4" r:id="rId3"/>
     <sheet name="dwd层表" sheetId="5" r:id="rId4"/>
     <sheet name="dws层表" sheetId="7" r:id="rId5"/>
+    <sheet name="ads层表" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="1053">
   <si>
     <t>数据域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3085,7 +3086,330 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设计原则：                                                                                                                                                                                                                          聚集是指针对原始明细粒度的数据进行汇总。DWS公共汇总层是面向分析对象的主题聚集建模。在本教程中，最终的分析目标为：最近一天某个类目（例如：厨具）商品在各省的销售总额、该类目Top10销售额商品名称、各省用户购买力分布。因此，我们可以以最终交易成功的商品、类目、买家等角度对最近一天的数据进行汇总。数据聚集的注意事项如下：
+    <t>衍生指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子指标：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">order_id          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_id            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_name          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_num           </t>
+  </si>
+  <si>
+    <t>split_total_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_level        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_id       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_name     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_id          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category1_id      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category1_name    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category2_id      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category2_name    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category3_id      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category3_name    </t>
+  </si>
+  <si>
+    <t>decimal(16,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku-id</t>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>sku名称</t>
+  </si>
+  <si>
+    <t>用户等级</t>
+  </si>
+  <si>
+    <t>地区id</t>
+  </si>
+  <si>
+    <t>品牌id</t>
+  </si>
+  <si>
+    <t>品牌名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品类一id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">品类一名称 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">品类二id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">品类二名称 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">品类三id </t>
+  </si>
+  <si>
+    <t>品类三名称</t>
+  </si>
+  <si>
+    <t>dwd_trade_order_di</t>
+  </si>
+  <si>
+    <t>dim_product_info_orc</t>
+  </si>
+  <si>
+    <t>dim_user_info_orc</t>
+  </si>
+  <si>
+    <t>floor( datediff( `current_date`( ) , birthday ) / 365 )</t>
+  </si>
+  <si>
+    <t>dws_trade_order_wide_di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id,user_id,sku_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易域下单综合统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">province_name        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_level           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refund_type_code     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refund_type_name     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refund_num           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refund_amount        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_id             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category1_id         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category1_name       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category2_id         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category2_name       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category3_id         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category3_name       </t>
+  </si>
+  <si>
+    <t>refund_reason_type_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refund_reason_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id</t>
+  </si>
+  <si>
+    <t>省份id</t>
+  </si>
+  <si>
+    <t>省份名称</t>
+  </si>
+  <si>
+    <t>退单类型</t>
+  </si>
+  <si>
+    <t>退单类型名称</t>
+  </si>
+  <si>
+    <t>退单原因类型</t>
+  </si>
+  <si>
+    <t>退单原因类型名称</t>
+  </si>
+  <si>
+    <t>品类一id</t>
+  </si>
+  <si>
+    <t>品类一名称</t>
+  </si>
+  <si>
+    <t>品类二id</t>
+  </si>
+  <si>
+    <t>品类二名称</t>
+  </si>
+  <si>
+    <t>品类三id</t>
+  </si>
+  <si>
+    <t>退单价值金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类三名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退单货数量（sku）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwd_trade_order_refund_di</t>
+  </si>
+  <si>
+    <t>dws_trade_order_refund_wide_di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易域退单综合统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dws_trade_sku_repurchase_di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku_id,user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录用户30天的复购操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_id      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_num     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_id    </t>
+  </si>
+  <si>
+    <t>his_order_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his_sku_id  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">his_sku_num </t>
+  </si>
+  <si>
+    <t xml:space="preserve">his_dt      </t>
+  </si>
+  <si>
+    <t>今日sku-id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日sku数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史sku-id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史sku数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史下单日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dws_trade_order_wide_di</t>
+  </si>
+  <si>
+    <t>user_id，sku_id相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计原则：                                                                                                                                                                                                                                 聚集是指针对原始明细粒度的数据进行汇总。DWS公共汇总层是面向分析对象的主题聚集建模。在本教程中，最终的分析目标为：最近一天某个类目（例如：厨具）商品在各省的销售总额、该类目Top10销售额商品名称、各省用户购买力分布。因此，我们可以以最终交易成功的商品、类目、买家等角度对最近一天的数据进行汇总。数据聚集的注意事项如下：
 聚集是不跨越事实的。聚集是针对原始星形模型进行的汇总。为获取和查询与原始模型一致的结果，聚集的维度和度量必须与原始模型保持一致，因此聚集是不跨越事实的。
 聚集会带来查询性能的提升，但聚集也会增加ETL维护的难度。当子类目对应的一级类目发生变更时，先前存在的、已经被汇总到聚集表中的数据需要被重新调整。
 此外，进行DWS层设计时还需遵循以下原则：
@@ -3095,28 +3419,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公共汇总事实表命名规范：                                                                                                                                                                  dws_{业务板块缩写/pub}_{数据域缩写}_{数据粒度缩写}[_{自定义表命名标签缩写}]_{统计时间周期范围缩写}。
-关于统计实际周期范围缩写，缺省情况下，离线计算应该包括最近一天（_1d）,最近N天（_nd）和历史截至当天（_td）三个表。如果出现_nd的表字段过多需要拆分时，只允许以一个统计周期单元作为原子拆分。                                                                                             即一个统计周期拆分一个表，例如最近7天（_1w）拆分一个表。不允许拆分出来的一个表存储多个统计周期。
+    <t>公共汇总事实表命名规范：                                                                                                                                                                                                dws_{业务板块缩写/pub}_{数据域缩写}_{数据粒度缩写}[_{自定义表命名标签缩写}]_{统计时间周期范围缩写}。
+关于统计实际周期范围缩写，缺省情况下，离线计算应该包括最近一天（_1d）,最近N天（_nd）和历史截至当天（_td）三个表。如果出现_nd的表字段过多需要拆分时，只允许以一个统计周期单元作为原子拆分。 即一个统计周期拆分一个表，例如最近7天（_1w）拆分一个表。不允许拆分出来的一个表存储多个统计周期。
 对于小时表[无论是天刷新还是小时刷新]，都用_hh来表示。
 对于分钟表[无论是天刷新还是小时刷新]，都用_mm来表示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>衍生指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子指标：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>派生指标：统计周期+修饰词+统计粒度+原子指标</t>
+    <t>派生指标：统计周期+维度+原子指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">session_id     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">visitor_num    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">page_num       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sesssion_time  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_num    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">home_skip_flag </t>
+  </si>
+  <si>
+    <t>dws_traffic_session_wide_di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">session_id     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量域会话统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int   </t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>APP版本号</t>
+  </si>
+  <si>
+    <t>是否首日使用</t>
+  </si>
+  <si>
+    <t>会话id</t>
+  </si>
+  <si>
+    <t>访客数</t>
+  </si>
+  <si>
+    <t>会话停留时长</t>
+  </si>
+  <si>
+    <t>会话数量</t>
+  </si>
+  <si>
+    <t>会话内页面数-毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页跳出标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_rn = 1 and page_id = 'home'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">date_diff   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录时间 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备id </t>
+  </si>
+  <si>
+    <t>app版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">统计日期 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">品牌 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwd_user_login_di</t>
+  </si>
+  <si>
+    <t>dwd_user_register_di</t>
+  </si>
+  <si>
+    <t>datediff( a.dt , b.dt )</t>
+  </si>
+  <si>
+    <t>a表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dws_user_retention_wide_di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id,his_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录30天内用户的留存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几日留存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原子指标（Atomic Metrics）：
 定义：原子指标是最基本的指标，通常从原始数据中直接提取，没有经过进一步的计算或处理。
-示例：销售数量、访问次数、库存水平、用户注册数。
+示例：销售金额
 派生指标（Derived Metrics）：
 定义：派生指标是通过对原子指标进行数学运算、聚合或变换而获得的。它们通常用于提供更深入的分析和理解。
 示例：平均交易价值（通过总销售额除以销售数量计算）、转化率（通过将购买次数除以访问次数计算）。
@@ -3130,254 +3568,332 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">order_id          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_id           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sku_id            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sku_name          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sku_num           </t>
-  </si>
-  <si>
-    <t>split_total_amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">age               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_level        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">province_id       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">province_name     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_id          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category1_id      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category1_name    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category2_id      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category2_name    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category3_id      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category3_name    </t>
-  </si>
-  <si>
-    <t>decimal(16,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sku-id</t>
-  </si>
-  <si>
-    <t>总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>sku名称</t>
-  </si>
-  <si>
-    <t>用户等级</t>
-  </si>
-  <si>
-    <t>地区id</t>
-  </si>
-  <si>
-    <t>品牌id</t>
-  </si>
-  <si>
-    <t>品牌名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品类一id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">品类一名称 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">品类二id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">品类二名称 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">品类三id </t>
-  </si>
-  <si>
-    <t>品类三名称</t>
-  </si>
-  <si>
-    <t>dwd_trade_order_di</t>
-  </si>
-  <si>
-    <t>dim_product_info_orc</t>
-  </si>
-  <si>
-    <t>dim_user_info_orc</t>
-  </si>
-  <si>
-    <t>floor( datediff( `current_date`( ) , birthday ) / 365 )</t>
-  </si>
-  <si>
-    <t>dws_trade_order_wide_di</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id,user_id,sku_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易域下单综合统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">province_name        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">age                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_level           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">refund_type_code     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">refund_type_name     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">refund_num           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">refund_amount        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_id             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category1_id         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category1_name       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category2_id         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category2_name       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category3_id         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">category3_name       </t>
-  </si>
-  <si>
-    <t>refund_reason_type_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refund_reason_type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单id</t>
-  </si>
-  <si>
-    <t>省份id</t>
-  </si>
-  <si>
-    <t>省份名称</t>
-  </si>
-  <si>
-    <t>退单类型</t>
-  </si>
-  <si>
-    <t>退单类型名称</t>
-  </si>
-  <si>
-    <t>退单原因类型</t>
-  </si>
-  <si>
-    <t>退单原因类型名称</t>
-  </si>
-  <si>
-    <t>品类一id</t>
-  </si>
-  <si>
-    <t>品类一名称</t>
-  </si>
-  <si>
-    <t>品类二id</t>
-  </si>
-  <si>
-    <t>品类二名称</t>
-  </si>
-  <si>
-    <t>品类三id</t>
-  </si>
-  <si>
-    <t>退单价值金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类三名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退单货数量（sku）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dwd_trade_order_refund_di</t>
-  </si>
-  <si>
-    <t>dws_trade_order_refund_wide_di</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易域退单综合统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>dws_user_continuous_login_df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">first_login_time     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_login_date     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_login_date      </t>
+  </si>
+  <si>
+    <t>continuous_login_days</t>
+  </si>
+  <si>
+    <t>用户首次登陆时间</t>
+  </si>
+  <si>
+    <t>连续登陆开始日期</t>
+  </si>
+  <si>
+    <t>最近登陆结束日期</t>
+  </si>
+  <si>
+    <t>连续登陆天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id              </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户域连续登陆统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dws_user_dau_1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户域dau统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆表去重统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dws_user_dau_3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户域3天dau统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆表3日去重统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dws_user_dau_1w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户域wau统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆表7日去重统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据应用层ADS（Application Data Service）：存放数据产品个性化的统计指标数据</t>
+  </si>
+  <si>
+    <t>ads_traffic_path_1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易域用户域路径结果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user_cnt    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_cnt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">source      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">target      </t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>页面起始id</t>
+  </si>
+  <si>
+    <t>页面跳转id</t>
+  </si>
+  <si>
+    <t>用户数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dws_traffic_user_path_wide_di</t>
+  </si>
+  <si>
+    <t>全量表。插入更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ads_traffic_funnel_plot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量域漏斗图每日结果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dt         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">page_id    </t>
+  </si>
+  <si>
+    <t>session_num</t>
+  </si>
+  <si>
+    <t>会话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ads_user_continuous_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户域连续登陆统计结果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cnt                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt                   </t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>开始登陆日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dws_user_continuous_login_df</t>
+  </si>
+  <si>
+    <t>ads_trade_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易域下单维度统计结果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dt            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_num     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_cnt     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_id   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category1_id  </t>
+  </si>
+  <si>
+    <t>category1_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category2_id  </t>
+  </si>
+  <si>
+    <t>category2_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category3_id  </t>
+  </si>
+  <si>
+    <t>category3_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单数量</t>
+  </si>
+  <si>
+    <t>下单人数</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>一级品类id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一级品类名称 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">二级品类id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">二级品类名称 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">三级品类id </t>
+  </si>
+  <si>
+    <t>三级品类名称</t>
+  </si>
+  <si>
+    <t>ads_traffic_session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量域会话统计结果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">visitor_num </t>
+  </si>
+  <si>
+    <t xml:space="preserve">page_num    </t>
+  </si>
+  <si>
+    <t>session_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_num </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt          </t>
+  </si>
+  <si>
+    <t>home_skip_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页跳出数量</t>
+  </si>
+  <si>
+    <t>uv</t>
+  </si>
+  <si>
+    <t>页面数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会话时长 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">会话数量 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3458,6 +3974,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF181818"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -3681,7 +4210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3835,6 +4364,15 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3866,78 +4404,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4042,35 +4508,80 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4090,7 +4601,43 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4102,11 +4649,17 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4444,36 +4997,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="9" t="s">
         <v>32</v>
       </c>
@@ -4507,10 +5060,10 @@
       <c r="N2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="51"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4541,7 +5094,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4576,7 +5129,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4611,7 +5164,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -4648,7 +5201,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4683,7 +5236,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -4716,7 +5269,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="57" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4751,7 +5304,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
@@ -4788,7 +5341,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -4825,7 +5378,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
@@ -4858,7 +5411,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
@@ -4889,7 +5442,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4918,7 +5471,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -4951,7 +5504,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="59" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4982,7 +5535,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
@@ -5011,7 +5564,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
@@ -5040,7 +5593,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -5071,7 +5624,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
@@ -5122,8 +5675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA29E3F-9A0F-4CE3-88F4-9F65042AA41E}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G33" sqref="A29:G33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5133,32 +5686,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="60"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
       <c r="C2" t="s">
         <v>32</v>
       </c>
@@ -5189,8 +5742,8 @@
       <c r="L2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5618,61 +6171,61 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="62"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="62"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="62"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
@@ -5730,54 +6283,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="77" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="107"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="87" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="110"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="87" t="s">
         <v>301</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="110"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -6163,40 +6716,40 @@
       <c r="A26" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="104"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="83"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="101"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="101"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
@@ -6637,40 +7190,40 @@
       <c r="A53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="117" t="s">
+      <c r="B53" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="119"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="98"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="111" t="s">
+      <c r="B54" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="113"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="92"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="116"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="95"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
@@ -6830,40 +7383,40 @@
       <c r="A66" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="88"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="68" t="s">
+      <c r="B67" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="70"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="107"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="108" t="s">
         <v>303</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="110"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -7177,40 +7730,40 @@
       <c r="A86" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="95" t="s">
+      <c r="B86" s="74" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="96"/>
-      <c r="D86" s="96"/>
-      <c r="E86" s="96"/>
-      <c r="F86" s="96"/>
-      <c r="G86" s="97"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="76"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="92" t="s">
+      <c r="B87" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="C87" s="93"/>
-      <c r="D87" s="93"/>
-      <c r="E87" s="93"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="94"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="73"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="89" t="s">
+      <c r="B88" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="91"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="70"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
@@ -7602,40 +8155,40 @@
       <c r="A111" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="C111" s="78"/>
-      <c r="D111" s="78"/>
-      <c r="E111" s="78"/>
-      <c r="F111" s="78"/>
-      <c r="G111" s="79"/>
+      <c r="C111" s="115"/>
+      <c r="D111" s="115"/>
+      <c r="E111" s="115"/>
+      <c r="F111" s="115"/>
+      <c r="G111" s="116"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B112" s="74" t="s">
+      <c r="B112" s="111" t="s">
         <v>308</v>
       </c>
-      <c r="C112" s="75"/>
-      <c r="D112" s="75"/>
-      <c r="E112" s="75"/>
-      <c r="F112" s="75"/>
-      <c r="G112" s="76"/>
+      <c r="C112" s="112"/>
+      <c r="D112" s="112"/>
+      <c r="E112" s="112"/>
+      <c r="F112" s="112"/>
+      <c r="G112" s="113"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="74" t="s">
+      <c r="B113" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="C113" s="75"/>
-      <c r="D113" s="75"/>
-      <c r="E113" s="75"/>
-      <c r="F113" s="75"/>
-      <c r="G113" s="76"/>
+      <c r="C113" s="112"/>
+      <c r="D113" s="112"/>
+      <c r="E113" s="112"/>
+      <c r="F113" s="112"/>
+      <c r="G113" s="113"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
@@ -7722,40 +8275,40 @@
       <c r="A120" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B120" s="83" t="s">
+      <c r="B120" s="120" t="s">
         <v>311</v>
       </c>
-      <c r="C120" s="84"/>
-      <c r="D120" s="84"/>
-      <c r="E120" s="84"/>
-      <c r="F120" s="84"/>
-      <c r="G120" s="85"/>
+      <c r="C120" s="121"/>
+      <c r="D120" s="121"/>
+      <c r="E120" s="121"/>
+      <c r="F120" s="121"/>
+      <c r="G120" s="122"/>
     </row>
     <row r="121" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B121" s="80" t="s">
+      <c r="B121" s="117" t="s">
         <v>310</v>
       </c>
-      <c r="C121" s="81"/>
-      <c r="D121" s="81"/>
-      <c r="E121" s="81"/>
-      <c r="F121" s="81"/>
-      <c r="G121" s="82"/>
+      <c r="C121" s="118"/>
+      <c r="D121" s="118"/>
+      <c r="E121" s="118"/>
+      <c r="F121" s="118"/>
+      <c r="G121" s="119"/>
     </row>
     <row r="122" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B122" s="80" t="s">
+      <c r="B122" s="117" t="s">
         <v>309</v>
       </c>
-      <c r="C122" s="81"/>
-      <c r="D122" s="81"/>
-      <c r="E122" s="81"/>
-      <c r="F122" s="81"/>
-      <c r="G122" s="82"/>
+      <c r="C122" s="118"/>
+      <c r="D122" s="118"/>
+      <c r="E122" s="118"/>
+      <c r="F122" s="118"/>
+      <c r="G122" s="119"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
@@ -7928,38 +8481,38 @@
       <c r="A134" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B134" s="65" t="s">
+      <c r="B134" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="C134" s="66"/>
-      <c r="D134" s="66"/>
-      <c r="E134" s="66"/>
-      <c r="F134" s="66"/>
-      <c r="G134" s="67"/>
+      <c r="C134" s="103"/>
+      <c r="D134" s="103"/>
+      <c r="E134" s="103"/>
+      <c r="F134" s="103"/>
+      <c r="G134" s="104"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B135" s="62"/>
-      <c r="C135" s="63"/>
-      <c r="D135" s="63"/>
-      <c r="E135" s="63"/>
-      <c r="F135" s="63"/>
-      <c r="G135" s="64"/>
+      <c r="B135" s="99"/>
+      <c r="C135" s="100"/>
+      <c r="D135" s="100"/>
+      <c r="E135" s="100"/>
+      <c r="F135" s="100"/>
+      <c r="G135" s="101"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B136" s="62" t="s">
+      <c r="B136" s="99" t="s">
         <v>300</v>
       </c>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="63"/>
-      <c r="G136" s="64"/>
+      <c r="C136" s="100"/>
+      <c r="D136" s="100"/>
+      <c r="E136" s="100"/>
+      <c r="F136" s="100"/>
+      <c r="G136" s="101"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
@@ -8034,6 +8587,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B120:G120"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B88:G88"/>
     <mergeCell ref="B87:G87"/>
@@ -8048,17 +8612,6 @@
     <mergeCell ref="B54:G54"/>
     <mergeCell ref="B55:G55"/>
     <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B120:G120"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8085,81 +8638,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="131" t="s">
         <v>378</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="132" t="s">
         <v>381</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="132" t="s">
         <v>382</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:13" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="133" t="s">
         <v>383</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
     </row>
     <row r="6" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="133" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
     </row>
     <row r="7" spans="1:13" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="133" t="s">
         <v>385</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
@@ -8179,67 +8732,67 @@
       <c r="M16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="130" t="s">
         <v>379</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="127" t="s">
         <v>373</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="135"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="129"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="127" t="s">
         <v>375</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="135"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="129"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="135"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="129"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
@@ -8477,53 +9030,53 @@
       <c r="A35" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="124" t="s">
         <v>376</v>
       </c>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="132"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="126"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="60" t="s">
         <v>372</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="62"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="62"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="62"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
@@ -8550,53 +9103,53 @@
       <c r="A42" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="88"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="108" t="s">
         <v>390</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="110"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="110"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="108" t="s">
         <v>352</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="110"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
@@ -8946,53 +9499,53 @@
       <c r="A65" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="71" t="s">
+      <c r="B65" s="108" t="s">
         <v>429</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="110"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="108" t="s">
         <v>430</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="110"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="71" t="s">
+      <c r="B67" s="108" t="s">
         <v>446</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="73"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="110"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="108" t="s">
         <v>352</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="110"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
@@ -9382,53 +9935,53 @@
       <c r="A90" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="124" t="s">
+      <c r="B90" s="134" t="s">
         <v>444</v>
       </c>
-      <c r="C90" s="124"/>
-      <c r="D90" s="124"/>
-      <c r="E90" s="124"/>
-      <c r="F90" s="124"/>
-      <c r="G90" s="124"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="134"/>
+      <c r="F90" s="134"/>
+      <c r="G90" s="134"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="124" t="s">
+      <c r="B91" s="134" t="s">
         <v>445</v>
       </c>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="124"/>
-      <c r="F91" s="124"/>
-      <c r="G91" s="124"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="134"/>
+      <c r="E91" s="134"/>
+      <c r="F91" s="134"/>
+      <c r="G91" s="134"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="124" t="s">
+      <c r="B92" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="124"/>
-      <c r="D92" s="124"/>
-      <c r="E92" s="124"/>
-      <c r="F92" s="124"/>
-      <c r="G92" s="124"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="134"/>
+      <c r="E92" s="134"/>
+      <c r="F92" s="134"/>
+      <c r="G92" s="134"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="124" t="s">
+      <c r="B93" s="134" t="s">
         <v>352</v>
       </c>
-      <c r="C93" s="124"/>
-      <c r="D93" s="124"/>
-      <c r="E93" s="124"/>
-      <c r="F93" s="124"/>
-      <c r="G93" s="124"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="134"/>
+      <c r="E93" s="134"/>
+      <c r="F93" s="134"/>
+      <c r="G93" s="134"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
@@ -9797,53 +10350,53 @@
       <c r="A116" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B116" s="124" t="s">
+      <c r="B116" s="134" t="s">
         <v>475</v>
       </c>
-      <c r="C116" s="124"/>
-      <c r="D116" s="124"/>
-      <c r="E116" s="124"/>
-      <c r="F116" s="124"/>
-      <c r="G116" s="124"/>
+      <c r="C116" s="134"/>
+      <c r="D116" s="134"/>
+      <c r="E116" s="134"/>
+      <c r="F116" s="134"/>
+      <c r="G116" s="134"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B117" s="125" t="s">
+      <c r="B117" s="135" t="s">
         <v>474</v>
       </c>
-      <c r="C117" s="125"/>
-      <c r="D117" s="125"/>
-      <c r="E117" s="125"/>
-      <c r="F117" s="125"/>
-      <c r="G117" s="125"/>
+      <c r="C117" s="135"/>
+      <c r="D117" s="135"/>
+      <c r="E117" s="135"/>
+      <c r="F117" s="135"/>
+      <c r="G117" s="135"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B118" s="124" t="s">
+      <c r="B118" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="C118" s="124"/>
-      <c r="D118" s="124"/>
-      <c r="E118" s="124"/>
-      <c r="F118" s="124"/>
-      <c r="G118" s="124"/>
+      <c r="C118" s="134"/>
+      <c r="D118" s="134"/>
+      <c r="E118" s="134"/>
+      <c r="F118" s="134"/>
+      <c r="G118" s="134"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B119" s="124" t="s">
+      <c r="B119" s="134" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="124"/>
-      <c r="D119" s="124"/>
-      <c r="E119" s="124"/>
-      <c r="F119" s="124"/>
-      <c r="G119" s="124"/>
+      <c r="C119" s="134"/>
+      <c r="D119" s="134"/>
+      <c r="E119" s="134"/>
+      <c r="F119" s="134"/>
+      <c r="G119" s="134"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
@@ -10121,53 +10674,53 @@
       <c r="A135" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B135" s="71" t="s">
+      <c r="B135" s="108" t="s">
         <v>505</v>
       </c>
-      <c r="C135" s="72"/>
-      <c r="D135" s="72"/>
-      <c r="E135" s="72"/>
-      <c r="F135" s="72"/>
-      <c r="G135" s="73"/>
+      <c r="C135" s="109"/>
+      <c r="D135" s="109"/>
+      <c r="E135" s="109"/>
+      <c r="F135" s="109"/>
+      <c r="G135" s="110"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B136" s="71" t="s">
+      <c r="B136" s="108" t="s">
         <v>504</v>
       </c>
-      <c r="C136" s="72"/>
-      <c r="D136" s="72"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="72"/>
-      <c r="G136" s="73"/>
+      <c r="C136" s="109"/>
+      <c r="D136" s="109"/>
+      <c r="E136" s="109"/>
+      <c r="F136" s="109"/>
+      <c r="G136" s="110"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B137" s="71" t="s">
+      <c r="B137" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C137" s="72"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="72"/>
-      <c r="F137" s="72"/>
-      <c r="G137" s="73"/>
+      <c r="C137" s="109"/>
+      <c r="D137" s="109"/>
+      <c r="E137" s="109"/>
+      <c r="F137" s="109"/>
+      <c r="G137" s="110"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B138" s="71" t="s">
+      <c r="B138" s="108" t="s">
         <v>352</v>
       </c>
-      <c r="C138" s="72"/>
-      <c r="D138" s="72"/>
-      <c r="E138" s="72"/>
-      <c r="F138" s="72"/>
-      <c r="G138" s="73"/>
+      <c r="C138" s="109"/>
+      <c r="D138" s="109"/>
+      <c r="E138" s="109"/>
+      <c r="F138" s="109"/>
+      <c r="G138" s="110"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="26"/>
@@ -10366,53 +10919,53 @@
       <c r="A151" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B151" s="71" t="s">
+      <c r="B151" s="108" t="s">
         <v>539</v>
       </c>
-      <c r="C151" s="72"/>
-      <c r="D151" s="72"/>
-      <c r="E151" s="72"/>
-      <c r="F151" s="72"/>
-      <c r="G151" s="73"/>
+      <c r="C151" s="109"/>
+      <c r="D151" s="109"/>
+      <c r="E151" s="109"/>
+      <c r="F151" s="109"/>
+      <c r="G151" s="110"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B152" s="71" t="s">
+      <c r="B152" s="108" t="s">
         <v>538</v>
       </c>
-      <c r="C152" s="72"/>
-      <c r="D152" s="72"/>
-      <c r="E152" s="72"/>
-      <c r="F152" s="72"/>
-      <c r="G152" s="73"/>
+      <c r="C152" s="109"/>
+      <c r="D152" s="109"/>
+      <c r="E152" s="109"/>
+      <c r="F152" s="109"/>
+      <c r="G152" s="110"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B153" s="71" t="s">
+      <c r="B153" s="108" t="s">
         <v>550</v>
       </c>
-      <c r="C153" s="72"/>
-      <c r="D153" s="72"/>
-      <c r="E153" s="72"/>
-      <c r="F153" s="72"/>
-      <c r="G153" s="73"/>
+      <c r="C153" s="109"/>
+      <c r="D153" s="109"/>
+      <c r="E153" s="109"/>
+      <c r="F153" s="109"/>
+      <c r="G153" s="110"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B154" s="71" t="s">
+      <c r="B154" s="108" t="s">
         <v>537</v>
       </c>
-      <c r="C154" s="72"/>
-      <c r="D154" s="72"/>
-      <c r="E154" s="72"/>
-      <c r="F154" s="72"/>
-      <c r="G154" s="73"/>
+      <c r="C154" s="109"/>
+      <c r="D154" s="109"/>
+      <c r="E154" s="109"/>
+      <c r="F154" s="109"/>
+      <c r="G154" s="110"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="26"/>
@@ -10553,65 +11106,65 @@
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164" s="60" t="s">
+      <c r="A164" s="63" t="s">
         <v>532</v>
       </c>
-      <c r="B164" s="60"/>
-      <c r="C164" s="60"/>
-      <c r="D164" s="60"/>
-      <c r="E164" s="60"/>
+      <c r="B164" s="63"/>
+      <c r="C164" s="63"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="63"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B165" s="62" t="s">
+      <c r="B165" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="C165" s="63"/>
-      <c r="D165" s="63"/>
-      <c r="E165" s="63"/>
-      <c r="F165" s="63"/>
-      <c r="G165" s="64"/>
+      <c r="C165" s="100"/>
+      <c r="D165" s="100"/>
+      <c r="E165" s="100"/>
+      <c r="F165" s="100"/>
+      <c r="G165" s="101"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B166" s="62" t="s">
+      <c r="B166" s="99" t="s">
         <v>535</v>
       </c>
-      <c r="C166" s="63"/>
-      <c r="D166" s="63"/>
-      <c r="E166" s="63"/>
-      <c r="F166" s="63"/>
-      <c r="G166" s="64"/>
+      <c r="C166" s="100"/>
+      <c r="D166" s="100"/>
+      <c r="E166" s="100"/>
+      <c r="F166" s="100"/>
+      <c r="G166" s="101"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B167" s="62" t="s">
+      <c r="B167" s="99" t="s">
         <v>506</v>
       </c>
-      <c r="C167" s="63"/>
-      <c r="D167" s="63"/>
-      <c r="E167" s="63"/>
-      <c r="F167" s="63"/>
-      <c r="G167" s="64"/>
+      <c r="C167" s="100"/>
+      <c r="D167" s="100"/>
+      <c r="E167" s="100"/>
+      <c r="F167" s="100"/>
+      <c r="G167" s="101"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B168" s="62" t="s">
+      <c r="B168" s="99" t="s">
         <v>352</v>
       </c>
-      <c r="C168" s="63"/>
-      <c r="D168" s="63"/>
-      <c r="E168" s="63"/>
-      <c r="F168" s="63"/>
-      <c r="G168" s="64"/>
+      <c r="C168" s="100"/>
+      <c r="D168" s="100"/>
+      <c r="E168" s="100"/>
+      <c r="F168" s="100"/>
+      <c r="G168" s="101"/>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="31"/>
@@ -10733,53 +11286,53 @@
       <c r="A177" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B177" s="62" t="s">
+      <c r="B177" s="99" t="s">
         <v>558</v>
       </c>
-      <c r="C177" s="63"/>
-      <c r="D177" s="63"/>
-      <c r="E177" s="63"/>
-      <c r="F177" s="63"/>
-      <c r="G177" s="64"/>
+      <c r="C177" s="100"/>
+      <c r="D177" s="100"/>
+      <c r="E177" s="100"/>
+      <c r="F177" s="100"/>
+      <c r="G177" s="101"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B178" s="62" t="s">
+      <c r="B178" s="99" t="s">
         <v>557</v>
       </c>
-      <c r="C178" s="63"/>
-      <c r="D178" s="63"/>
-      <c r="E178" s="63"/>
-      <c r="F178" s="63"/>
-      <c r="G178" s="64"/>
+      <c r="C178" s="100"/>
+      <c r="D178" s="100"/>
+      <c r="E178" s="100"/>
+      <c r="F178" s="100"/>
+      <c r="G178" s="101"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B179" s="62" t="s">
+      <c r="B179" s="99" t="s">
         <v>506</v>
       </c>
-      <c r="C179" s="63"/>
-      <c r="D179" s="63"/>
-      <c r="E179" s="63"/>
-      <c r="F179" s="63"/>
-      <c r="G179" s="64"/>
+      <c r="C179" s="100"/>
+      <c r="D179" s="100"/>
+      <c r="E179" s="100"/>
+      <c r="F179" s="100"/>
+      <c r="G179" s="101"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B180" s="62" t="s">
+      <c r="B180" s="99" t="s">
         <v>300</v>
       </c>
-      <c r="C180" s="63"/>
-      <c r="D180" s="63"/>
-      <c r="E180" s="63"/>
-      <c r="F180" s="63"/>
-      <c r="G180" s="64"/>
+      <c r="C180" s="100"/>
+      <c r="D180" s="100"/>
+      <c r="E180" s="100"/>
+      <c r="F180" s="100"/>
+      <c r="G180" s="101"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="31"/>
@@ -10901,53 +11454,53 @@
       <c r="A189" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B189" s="62" t="s">
+      <c r="B189" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="C189" s="63"/>
-      <c r="D189" s="63"/>
-      <c r="E189" s="63"/>
-      <c r="F189" s="63"/>
-      <c r="G189" s="64"/>
+      <c r="C189" s="100"/>
+      <c r="D189" s="100"/>
+      <c r="E189" s="100"/>
+      <c r="F189" s="100"/>
+      <c r="G189" s="101"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B190" s="62" t="s">
+      <c r="B190" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="C190" s="63"/>
-      <c r="D190" s="63"/>
-      <c r="E190" s="63"/>
-      <c r="F190" s="63"/>
-      <c r="G190" s="64"/>
+      <c r="C190" s="100"/>
+      <c r="D190" s="100"/>
+      <c r="E190" s="100"/>
+      <c r="F190" s="100"/>
+      <c r="G190" s="101"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B191" s="62" t="s">
+      <c r="B191" s="99" t="s">
         <v>506</v>
       </c>
-      <c r="C191" s="63"/>
-      <c r="D191" s="63"/>
-      <c r="E191" s="63"/>
-      <c r="F191" s="63"/>
-      <c r="G191" s="64"/>
+      <c r="C191" s="100"/>
+      <c r="D191" s="100"/>
+      <c r="E191" s="100"/>
+      <c r="F191" s="100"/>
+      <c r="G191" s="101"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B192" s="62" t="s">
+      <c r="B192" s="99" t="s">
         <v>300</v>
       </c>
-      <c r="C192" s="63"/>
-      <c r="D192" s="63"/>
-      <c r="E192" s="63"/>
-      <c r="F192" s="63"/>
-      <c r="G192" s="64"/>
+      <c r="C192" s="100"/>
+      <c r="D192" s="100"/>
+      <c r="E192" s="100"/>
+      <c r="F192" s="100"/>
+      <c r="G192" s="101"/>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="31"/>
@@ -11099,53 +11652,53 @@
       <c r="A205" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B205" s="121" t="s">
+      <c r="B205" s="136" t="s">
         <v>568</v>
       </c>
-      <c r="C205" s="122"/>
-      <c r="D205" s="122"/>
-      <c r="E205" s="122"/>
-      <c r="F205" s="122"/>
-      <c r="G205" s="123"/>
+      <c r="C205" s="137"/>
+      <c r="D205" s="137"/>
+      <c r="E205" s="137"/>
+      <c r="F205" s="137"/>
+      <c r="G205" s="138"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B206" s="121" t="s">
+      <c r="B206" s="136" t="s">
         <v>569</v>
       </c>
-      <c r="C206" s="122"/>
-      <c r="D206" s="122"/>
-      <c r="E206" s="122"/>
-      <c r="F206" s="122"/>
-      <c r="G206" s="123"/>
+      <c r="C206" s="137"/>
+      <c r="D206" s="137"/>
+      <c r="E206" s="137"/>
+      <c r="F206" s="137"/>
+      <c r="G206" s="138"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B207" s="121" t="s">
+      <c r="B207" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="C207" s="122"/>
-      <c r="D207" s="122"/>
-      <c r="E207" s="122"/>
-      <c r="F207" s="122"/>
-      <c r="G207" s="123"/>
+      <c r="C207" s="137"/>
+      <c r="D207" s="137"/>
+      <c r="E207" s="137"/>
+      <c r="F207" s="137"/>
+      <c r="G207" s="138"/>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B208" s="121" t="s">
+      <c r="B208" s="136" t="s">
         <v>352</v>
       </c>
-      <c r="C208" s="122"/>
-      <c r="D208" s="122"/>
-      <c r="E208" s="122"/>
-      <c r="F208" s="122"/>
-      <c r="G208" s="123"/>
+      <c r="C208" s="137"/>
+      <c r="D208" s="137"/>
+      <c r="E208" s="137"/>
+      <c r="F208" s="137"/>
+      <c r="G208" s="138"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="43"/>
@@ -11267,53 +11820,53 @@
       <c r="A216" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B216" s="121" t="s">
+      <c r="B216" s="136" t="s">
         <v>579</v>
       </c>
-      <c r="C216" s="122"/>
-      <c r="D216" s="122"/>
-      <c r="E216" s="122"/>
-      <c r="F216" s="122"/>
-      <c r="G216" s="123"/>
+      <c r="C216" s="137"/>
+      <c r="D216" s="137"/>
+      <c r="E216" s="137"/>
+      <c r="F216" s="137"/>
+      <c r="G216" s="138"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B217" s="121" t="s">
+      <c r="B217" s="136" t="s">
         <v>580</v>
       </c>
-      <c r="C217" s="122"/>
-      <c r="D217" s="122"/>
-      <c r="E217" s="122"/>
-      <c r="F217" s="122"/>
-      <c r="G217" s="123"/>
+      <c r="C217" s="137"/>
+      <c r="D217" s="137"/>
+      <c r="E217" s="137"/>
+      <c r="F217" s="137"/>
+      <c r="G217" s="138"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B218" s="121" t="s">
+      <c r="B218" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="C218" s="122"/>
-      <c r="D218" s="122"/>
-      <c r="E218" s="122"/>
-      <c r="F218" s="122"/>
-      <c r="G218" s="123"/>
+      <c r="C218" s="137"/>
+      <c r="D218" s="137"/>
+      <c r="E218" s="137"/>
+      <c r="F218" s="137"/>
+      <c r="G218" s="138"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B219" s="121" t="s">
+      <c r="B219" s="136" t="s">
         <v>352</v>
       </c>
-      <c r="C219" s="122"/>
-      <c r="D219" s="122"/>
-      <c r="E219" s="122"/>
-      <c r="F219" s="122"/>
-      <c r="G219" s="123"/>
+      <c r="C219" s="137"/>
+      <c r="D219" s="137"/>
+      <c r="E219" s="137"/>
+      <c r="F219" s="137"/>
+      <c r="G219" s="138"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="43"/>
@@ -11519,53 +12072,53 @@
       <c r="A234" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B234" s="80" t="s">
+      <c r="B234" s="117" t="s">
         <v>638</v>
       </c>
-      <c r="C234" s="81"/>
-      <c r="D234" s="81"/>
-      <c r="E234" s="81"/>
-      <c r="F234" s="81"/>
-      <c r="G234" s="82"/>
+      <c r="C234" s="118"/>
+      <c r="D234" s="118"/>
+      <c r="E234" s="118"/>
+      <c r="F234" s="118"/>
+      <c r="G234" s="119"/>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B235" s="80" t="s">
+      <c r="B235" s="117" t="s">
         <v>599</v>
       </c>
-      <c r="C235" s="81"/>
-      <c r="D235" s="81"/>
-      <c r="E235" s="81"/>
-      <c r="F235" s="81"/>
-      <c r="G235" s="82"/>
+      <c r="C235" s="118"/>
+      <c r="D235" s="118"/>
+      <c r="E235" s="118"/>
+      <c r="F235" s="118"/>
+      <c r="G235" s="119"/>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B236" s="80" t="s">
+      <c r="B236" s="117" t="s">
         <v>600</v>
       </c>
-      <c r="C236" s="81"/>
-      <c r="D236" s="81"/>
-      <c r="E236" s="81"/>
-      <c r="F236" s="81"/>
-      <c r="G236" s="82"/>
+      <c r="C236" s="118"/>
+      <c r="D236" s="118"/>
+      <c r="E236" s="118"/>
+      <c r="F236" s="118"/>
+      <c r="G236" s="119"/>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B237" s="80" t="s">
+      <c r="B237" s="117" t="s">
         <v>352</v>
       </c>
-      <c r="C237" s="81"/>
-      <c r="D237" s="81"/>
-      <c r="E237" s="81"/>
-      <c r="F237" s="81"/>
-      <c r="G237" s="82"/>
+      <c r="C237" s="118"/>
+      <c r="D237" s="118"/>
+      <c r="E237" s="118"/>
+      <c r="F237" s="118"/>
+      <c r="G237" s="119"/>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="29"/>
@@ -11915,53 +12468,53 @@
       <c r="A257" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B257" s="80" t="s">
+      <c r="B257" s="117" t="s">
         <v>642</v>
       </c>
-      <c r="C257" s="81"/>
-      <c r="D257" s="81"/>
-      <c r="E257" s="81"/>
-      <c r="F257" s="81"/>
-      <c r="G257" s="82"/>
+      <c r="C257" s="118"/>
+      <c r="D257" s="118"/>
+      <c r="E257" s="118"/>
+      <c r="F257" s="118"/>
+      <c r="G257" s="119"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B258" s="80" t="s">
+      <c r="B258" s="117" t="s">
         <v>599</v>
       </c>
-      <c r="C258" s="81"/>
-      <c r="D258" s="81"/>
-      <c r="E258" s="81"/>
-      <c r="F258" s="81"/>
-      <c r="G258" s="82"/>
+      <c r="C258" s="118"/>
+      <c r="D258" s="118"/>
+      <c r="E258" s="118"/>
+      <c r="F258" s="118"/>
+      <c r="G258" s="119"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B259" s="80" t="s">
+      <c r="B259" s="117" t="s">
         <v>600</v>
       </c>
-      <c r="C259" s="81"/>
-      <c r="D259" s="81"/>
-      <c r="E259" s="81"/>
-      <c r="F259" s="81"/>
-      <c r="G259" s="82"/>
+      <c r="C259" s="118"/>
+      <c r="D259" s="118"/>
+      <c r="E259" s="118"/>
+      <c r="F259" s="118"/>
+      <c r="G259" s="119"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B260" s="80" t="s">
+      <c r="B260" s="117" t="s">
         <v>352</v>
       </c>
-      <c r="C260" s="81"/>
-      <c r="D260" s="81"/>
-      <c r="E260" s="81"/>
-      <c r="F260" s="81"/>
-      <c r="G260" s="82"/>
+      <c r="C260" s="118"/>
+      <c r="D260" s="118"/>
+      <c r="E260" s="118"/>
+      <c r="F260" s="118"/>
+      <c r="G260" s="119"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="29"/>
@@ -12330,53 +12883,53 @@
       <c r="A282" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B282" s="136" t="s">
+      <c r="B282" s="123" t="s">
         <v>661</v>
       </c>
-      <c r="C282" s="136"/>
-      <c r="D282" s="136"/>
-      <c r="E282" s="136"/>
-      <c r="F282" s="136"/>
-      <c r="G282" s="136"/>
+      <c r="C282" s="123"/>
+      <c r="D282" s="123"/>
+      <c r="E282" s="123"/>
+      <c r="F282" s="123"/>
+      <c r="G282" s="123"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B283" s="136" t="s">
+      <c r="B283" s="123" t="s">
         <v>662</v>
       </c>
-      <c r="C283" s="136"/>
-      <c r="D283" s="136"/>
-      <c r="E283" s="136"/>
-      <c r="F283" s="136"/>
-      <c r="G283" s="136"/>
+      <c r="C283" s="123"/>
+      <c r="D283" s="123"/>
+      <c r="E283" s="123"/>
+      <c r="F283" s="123"/>
+      <c r="G283" s="123"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B284" s="136" t="s">
+      <c r="B284" s="123" t="s">
         <v>663</v>
       </c>
-      <c r="C284" s="136"/>
-      <c r="D284" s="136"/>
-      <c r="E284" s="136"/>
-      <c r="F284" s="136"/>
-      <c r="G284" s="136"/>
+      <c r="C284" s="123"/>
+      <c r="D284" s="123"/>
+      <c r="E284" s="123"/>
+      <c r="F284" s="123"/>
+      <c r="G284" s="123"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B285" s="136" t="s">
+      <c r="B285" s="123" t="s">
         <v>300</v>
       </c>
-      <c r="C285" s="136"/>
-      <c r="D285" s="136"/>
-      <c r="E285" s="136"/>
-      <c r="F285" s="136"/>
-      <c r="G285" s="136"/>
+      <c r="C285" s="123"/>
+      <c r="D285" s="123"/>
+      <c r="E285" s="123"/>
+      <c r="F285" s="123"/>
+      <c r="G285" s="123"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="29"/>
@@ -12800,53 +13353,53 @@
       <c r="A310" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B310" s="136" t="s">
+      <c r="B310" s="123" t="s">
         <v>705</v>
       </c>
-      <c r="C310" s="136"/>
-      <c r="D310" s="136"/>
-      <c r="E310" s="136"/>
-      <c r="F310" s="136"/>
-      <c r="G310" s="136"/>
+      <c r="C310" s="123"/>
+      <c r="D310" s="123"/>
+      <c r="E310" s="123"/>
+      <c r="F310" s="123"/>
+      <c r="G310" s="123"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B311" s="136" t="s">
+      <c r="B311" s="123" t="s">
         <v>706</v>
       </c>
-      <c r="C311" s="136"/>
-      <c r="D311" s="136"/>
-      <c r="E311" s="136"/>
-      <c r="F311" s="136"/>
-      <c r="G311" s="136"/>
+      <c r="C311" s="123"/>
+      <c r="D311" s="123"/>
+      <c r="E311" s="123"/>
+      <c r="F311" s="123"/>
+      <c r="G311" s="123"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B312" s="136" t="s">
+      <c r="B312" s="123" t="s">
         <v>707</v>
       </c>
-      <c r="C312" s="136"/>
-      <c r="D312" s="136"/>
-      <c r="E312" s="136"/>
-      <c r="F312" s="136"/>
-      <c r="G312" s="136"/>
+      <c r="C312" s="123"/>
+      <c r="D312" s="123"/>
+      <c r="E312" s="123"/>
+      <c r="F312" s="123"/>
+      <c r="G312" s="123"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B313" s="136" t="s">
+      <c r="B313" s="123" t="s">
         <v>352</v>
       </c>
-      <c r="C313" s="136"/>
-      <c r="D313" s="136"/>
-      <c r="E313" s="136"/>
-      <c r="F313" s="136"/>
-      <c r="G313" s="136"/>
+      <c r="C313" s="123"/>
+      <c r="D313" s="123"/>
+      <c r="E313" s="123"/>
+      <c r="F313" s="123"/>
+      <c r="G313" s="123"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="29"/>
@@ -13289,53 +13842,53 @@
       <c r="A339" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B339" s="136" t="s">
+      <c r="B339" s="123" t="s">
         <v>722</v>
       </c>
-      <c r="C339" s="136"/>
-      <c r="D339" s="136"/>
-      <c r="E339" s="136"/>
-      <c r="F339" s="136"/>
-      <c r="G339" s="136"/>
+      <c r="C339" s="123"/>
+      <c r="D339" s="123"/>
+      <c r="E339" s="123"/>
+      <c r="F339" s="123"/>
+      <c r="G339" s="123"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B340" s="136" t="s">
+      <c r="B340" s="123" t="s">
         <v>723</v>
       </c>
-      <c r="C340" s="136"/>
-      <c r="D340" s="136"/>
-      <c r="E340" s="136"/>
-      <c r="F340" s="136"/>
-      <c r="G340" s="136"/>
+      <c r="C340" s="123"/>
+      <c r="D340" s="123"/>
+      <c r="E340" s="123"/>
+      <c r="F340" s="123"/>
+      <c r="G340" s="123"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B341" s="136" t="s">
+      <c r="B341" s="123" t="s">
         <v>724</v>
       </c>
-      <c r="C341" s="136"/>
-      <c r="D341" s="136"/>
-      <c r="E341" s="136"/>
-      <c r="F341" s="136"/>
-      <c r="G341" s="136"/>
+      <c r="C341" s="123"/>
+      <c r="D341" s="123"/>
+      <c r="E341" s="123"/>
+      <c r="F341" s="123"/>
+      <c r="G341" s="123"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B342" s="136" t="s">
+      <c r="B342" s="123" t="s">
         <v>352</v>
       </c>
-      <c r="C342" s="136"/>
-      <c r="D342" s="136"/>
-      <c r="E342" s="136"/>
-      <c r="F342" s="136"/>
-      <c r="G342" s="136"/>
+      <c r="C342" s="123"/>
+      <c r="D342" s="123"/>
+      <c r="E342" s="123"/>
+      <c r="F342" s="123"/>
+      <c r="G342" s="123"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="29"/>
@@ -14033,53 +14586,53 @@
       <c r="A384" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B384" s="120" t="s">
+      <c r="B384" s="139" t="s">
         <v>774</v>
       </c>
-      <c r="C384" s="120"/>
-      <c r="D384" s="120"/>
-      <c r="E384" s="120"/>
-      <c r="F384" s="120"/>
-      <c r="G384" s="120"/>
+      <c r="C384" s="139"/>
+      <c r="D384" s="139"/>
+      <c r="E384" s="139"/>
+      <c r="F384" s="139"/>
+      <c r="G384" s="139"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B385" s="120" t="s">
+      <c r="B385" s="139" t="s">
         <v>775</v>
       </c>
-      <c r="C385" s="120"/>
-      <c r="D385" s="120"/>
-      <c r="E385" s="120"/>
-      <c r="F385" s="120"/>
-      <c r="G385" s="120"/>
+      <c r="C385" s="139"/>
+      <c r="D385" s="139"/>
+      <c r="E385" s="139"/>
+      <c r="F385" s="139"/>
+      <c r="G385" s="139"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B386" s="120" t="s">
+      <c r="B386" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="C386" s="120"/>
-      <c r="D386" s="120"/>
-      <c r="E386" s="120"/>
-      <c r="F386" s="120"/>
-      <c r="G386" s="120"/>
+      <c r="C386" s="139"/>
+      <c r="D386" s="139"/>
+      <c r="E386" s="139"/>
+      <c r="F386" s="139"/>
+      <c r="G386" s="139"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B387" s="120" t="s">
+      <c r="B387" s="139" t="s">
         <v>352</v>
       </c>
-      <c r="C387" s="120"/>
-      <c r="D387" s="120"/>
-      <c r="E387" s="120"/>
-      <c r="F387" s="120"/>
-      <c r="G387" s="120"/>
+      <c r="C387" s="139"/>
+      <c r="D387" s="139"/>
+      <c r="E387" s="139"/>
+      <c r="F387" s="139"/>
+      <c r="G387" s="139"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="45"/>
@@ -14312,53 +14865,53 @@
       <c r="A400" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B400" s="120" t="s">
+      <c r="B400" s="139" t="s">
         <v>790</v>
       </c>
-      <c r="C400" s="120"/>
-      <c r="D400" s="120"/>
-      <c r="E400" s="120"/>
-      <c r="F400" s="120"/>
-      <c r="G400" s="120"/>
+      <c r="C400" s="139"/>
+      <c r="D400" s="139"/>
+      <c r="E400" s="139"/>
+      <c r="F400" s="139"/>
+      <c r="G400" s="139"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B401" s="120" t="s">
+      <c r="B401" s="139" t="s">
         <v>818</v>
       </c>
-      <c r="C401" s="120"/>
-      <c r="D401" s="120"/>
-      <c r="E401" s="120"/>
-      <c r="F401" s="120"/>
-      <c r="G401" s="120"/>
+      <c r="C401" s="139"/>
+      <c r="D401" s="139"/>
+      <c r="E401" s="139"/>
+      <c r="F401" s="139"/>
+      <c r="G401" s="139"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B402" s="120" t="s">
+      <c r="B402" s="139" t="s">
         <v>791</v>
       </c>
-      <c r="C402" s="120"/>
-      <c r="D402" s="120"/>
-      <c r="E402" s="120"/>
-      <c r="F402" s="120"/>
-      <c r="G402" s="120"/>
+      <c r="C402" s="139"/>
+      <c r="D402" s="139"/>
+      <c r="E402" s="139"/>
+      <c r="F402" s="139"/>
+      <c r="G402" s="139"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B403" s="120" t="s">
+      <c r="B403" s="139" t="s">
         <v>352</v>
       </c>
-      <c r="C403" s="120"/>
-      <c r="D403" s="120"/>
-      <c r="E403" s="120"/>
-      <c r="F403" s="120"/>
-      <c r="G403" s="120"/>
+      <c r="C403" s="139"/>
+      <c r="D403" s="139"/>
+      <c r="E403" s="139"/>
+      <c r="F403" s="139"/>
+      <c r="G403" s="139"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="45"/>
@@ -14630,46 +15183,39 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B341:G341"/>
-    <mergeCell ref="B342:G342"/>
-    <mergeCell ref="B311:G311"/>
-    <mergeCell ref="B312:G312"/>
-    <mergeCell ref="B313:G313"/>
-    <mergeCell ref="B339:G339"/>
-    <mergeCell ref="B340:G340"/>
-    <mergeCell ref="B282:G282"/>
-    <mergeCell ref="B283:G283"/>
-    <mergeCell ref="B284:G284"/>
-    <mergeCell ref="B285:G285"/>
-    <mergeCell ref="B310:G310"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B401:G401"/>
+    <mergeCell ref="B402:G402"/>
+    <mergeCell ref="B403:G403"/>
+    <mergeCell ref="B384:G384"/>
+    <mergeCell ref="B385:G385"/>
+    <mergeCell ref="B386:G386"/>
+    <mergeCell ref="B387:G387"/>
+    <mergeCell ref="B400:G400"/>
+    <mergeCell ref="B237:G237"/>
+    <mergeCell ref="B257:G257"/>
+    <mergeCell ref="B258:G258"/>
+    <mergeCell ref="B259:G259"/>
+    <mergeCell ref="B260:G260"/>
+    <mergeCell ref="B218:G218"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="B234:G234"/>
+    <mergeCell ref="B235:G235"/>
+    <mergeCell ref="B236:G236"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B207:G207"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B216:G216"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="B179:G179"/>
+    <mergeCell ref="B180:G180"/>
+    <mergeCell ref="B168:G168"/>
     <mergeCell ref="B165:G165"/>
     <mergeCell ref="B166:G166"/>
     <mergeCell ref="B167:G167"/>
@@ -14686,39 +15232,46 @@
     <mergeCell ref="B153:G153"/>
     <mergeCell ref="B154:G154"/>
     <mergeCell ref="A164:E164"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="B179:G179"/>
-    <mergeCell ref="B180:G180"/>
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B205:G205"/>
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="B207:G207"/>
-    <mergeCell ref="B208:G208"/>
-    <mergeCell ref="B216:G216"/>
-    <mergeCell ref="B217:G217"/>
-    <mergeCell ref="B218:G218"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="B234:G234"/>
-    <mergeCell ref="B235:G235"/>
-    <mergeCell ref="B236:G236"/>
-    <mergeCell ref="B237:G237"/>
-    <mergeCell ref="B257:G257"/>
-    <mergeCell ref="B258:G258"/>
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="B260:G260"/>
-    <mergeCell ref="B401:G401"/>
-    <mergeCell ref="B402:G402"/>
-    <mergeCell ref="B403:G403"/>
-    <mergeCell ref="B384:G384"/>
-    <mergeCell ref="B385:G385"/>
-    <mergeCell ref="B386:G386"/>
-    <mergeCell ref="B387:G387"/>
-    <mergeCell ref="B400:G400"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B282:G282"/>
+    <mergeCell ref="B283:G283"/>
+    <mergeCell ref="B284:G284"/>
+    <mergeCell ref="B285:G285"/>
+    <mergeCell ref="B310:G310"/>
+    <mergeCell ref="B341:G341"/>
+    <mergeCell ref="B342:G342"/>
+    <mergeCell ref="B311:G311"/>
+    <mergeCell ref="B312:G312"/>
+    <mergeCell ref="B313:G313"/>
+    <mergeCell ref="B339:G339"/>
+    <mergeCell ref="B340:G340"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14728,10 +15281,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04A15C8-D8BA-47F5-BD04-CE185146DCF2}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14742,66 +15295,67 @@
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="147" t="s">
         <v>819</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
     </row>
     <row r="2" spans="1:15" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
-        <v>820</v>
-      </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
+      <c r="A2" s="147" t="s">
+        <v>919</v>
+      </c>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
     </row>
     <row r="3" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
-        <v>821</v>
-      </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
+      <c r="A3" s="147" t="s">
+        <v>920</v>
+      </c>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>824</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="302.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
-        <v>825</v>
-      </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
+      <c r="A7" s="148" t="s">
+        <v>958</v>
+      </c>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
@@ -14826,53 +15380,53 @@
       <c r="A10" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="137" t="s">
-        <v>864</v>
-      </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="139"/>
+      <c r="B10" s="143" t="s">
+        <v>860</v>
+      </c>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="145"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="137" t="s">
-        <v>866</v>
-      </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="139"/>
+      <c r="B11" s="143" t="s">
+        <v>862</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="145"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="137" t="s">
-        <v>865</v>
-      </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
+      <c r="B12" s="143" t="s">
+        <v>861</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="145"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="143" t="s">
         <v>352</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="139"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="145"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
@@ -14898,7 +15452,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="49" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>545</v>
@@ -14917,7 +15471,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="49" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>545</v>
@@ -14926,7 +15480,7 @@
         <v>296</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>232</v>
@@ -14936,16 +15490,16 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="49" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F17" s="49" t="s">
         <v>232</v>
@@ -14955,16 +15509,16 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="49" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F18" s="49" t="s">
         <v>232</v>
@@ -14974,7 +15528,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="49" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>121</v>
@@ -14983,7 +15537,7 @@
         <v>548</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F19" s="49" t="s">
         <v>232</v>
@@ -14993,16 +15547,16 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="49" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F20" s="49" t="s">
         <v>232</v>
@@ -15012,7 +15566,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="49" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>545</v>
@@ -15021,7 +15575,7 @@
         <v>104</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F21" s="49" t="s">
         <v>232</v>
@@ -15031,7 +15585,7 @@
     <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="49" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C22" s="49" t="s">
         <v>121</v>
@@ -15040,26 +15594,26 @@
         <v>103</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="49" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F23" s="49" t="s">
         <v>232</v>
@@ -15069,13 +15623,13 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="49" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C24" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E24" s="49" t="s">
         <v>380</v>
@@ -15088,7 +15642,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="49" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C25" s="49" t="s">
         <v>545</v>
@@ -15107,16 +15661,16 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="49" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F26" s="49" t="s">
         <v>232</v>
@@ -15126,16 +15680,16 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="49" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C27" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F27" s="49" t="s">
         <v>232</v>
@@ -15145,16 +15699,16 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="49" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C28" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F28" s="49" t="s">
         <v>232</v>
@@ -15164,16 +15718,16 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="49" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C29" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F29" s="49" t="s">
         <v>232</v>
@@ -15183,16 +15737,16 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C30" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F30" s="49" t="s">
         <v>232</v>
@@ -15202,16 +15756,16 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="49" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C31" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D31" s="49" t="s">
+        <v>853</v>
+      </c>
+      <c r="E31" s="49" t="s">
         <v>857</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>861</v>
       </c>
       <c r="F31" s="49" t="s">
         <v>232</v>
@@ -15221,16 +15775,16 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
       <c r="B32" s="49" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C32" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F32" s="49" t="s">
         <v>232</v>
@@ -15240,16 +15794,16 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="49" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C33" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F33" s="49" t="s">
         <v>232</v>
@@ -15260,53 +15814,53 @@
       <c r="A35" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="137" t="s">
-        <v>901</v>
-      </c>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="138"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="139"/>
+      <c r="B35" s="143" t="s">
+        <v>897</v>
+      </c>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="145"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="137" t="s">
-        <v>902</v>
-      </c>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="139"/>
+      <c r="B36" s="143" t="s">
+        <v>898</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="137" t="s">
-        <v>865</v>
-      </c>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="139"/>
+      <c r="B37" s="143" t="s">
+        <v>861</v>
+      </c>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="145"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="137" t="s">
+      <c r="B38" s="143" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="139"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="145"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
@@ -15338,10 +15892,10 @@
         <v>545</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F40" s="49" t="s">
         <v>232</v>
@@ -15360,7 +15914,7 @@
         <v>576</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F41" s="49" t="s">
         <v>232</v>
@@ -15376,10 +15930,10 @@
         <v>545</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F42" s="49" t="s">
         <v>232</v>
@@ -15395,10 +15949,10 @@
         <v>545</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F43" s="49" t="s">
         <v>232</v>
@@ -15408,13 +15962,13 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="49"/>
       <c r="B44" s="49" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C44" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E44" s="49" t="s">
         <v>241</v>
@@ -15427,16 +15981,16 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
       <c r="B45" s="49" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C45" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F45" s="49" t="s">
         <v>232</v>
@@ -15446,7 +16000,7 @@
     <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="49"/>
       <c r="B46" s="49" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C46" s="49" t="s">
         <v>433</v>
@@ -15455,26 +16009,26 @@
         <v>103</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
       <c r="B47" s="49" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C47" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F47" s="49" t="s">
         <v>232</v>
@@ -15484,16 +16038,16 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="49"/>
       <c r="B48" s="49" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C48" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F48" s="49" t="s">
         <v>232</v>
@@ -15503,16 +16057,16 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="49"/>
       <c r="B49" s="49" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C49" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F49" s="49" t="s">
         <v>232</v>
@@ -15522,16 +16076,16 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="49"/>
       <c r="B50" s="49" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C50" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F50" s="49" t="s">
         <v>232</v>
@@ -15541,16 +16095,16 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="49"/>
       <c r="B51" s="49" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C51" s="49" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D51" s="49" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F51" s="49" t="s">
         <v>232</v>
@@ -15560,16 +16114,16 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="49"/>
       <c r="B52" s="49" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C52" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F52" s="49" t="s">
         <v>232</v>
@@ -15579,16 +16133,16 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="49"/>
       <c r="B53" s="49" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C53" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F53" s="49" t="s">
         <v>232</v>
@@ -15598,16 +16152,16 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="49"/>
       <c r="B54" s="49" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C54" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E54" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F54" s="49" t="s">
         <v>232</v>
@@ -15617,16 +16171,16 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="49"/>
       <c r="B55" s="49" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C55" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F55" s="49" t="s">
         <v>232</v>
@@ -15636,16 +16190,16 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="49"/>
       <c r="B56" s="49" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C56" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E56" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F56" s="49" t="s">
         <v>232</v>
@@ -15655,16 +16209,16 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="49"/>
       <c r="B57" s="49" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C57" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E57" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F57" s="49" t="s">
         <v>232</v>
@@ -15674,16 +16228,16 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="49"/>
       <c r="B58" s="49" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C58" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F58" s="49" t="s">
         <v>232</v>
@@ -15693,16 +16247,16 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="49"/>
       <c r="B59" s="49" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C59" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E59" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F59" s="49" t="s">
         <v>232</v>
@@ -15712,16 +16266,16 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="49"/>
       <c r="B60" s="49" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C60" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E60" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F60" s="49" t="s">
         <v>232</v>
@@ -15731,36 +16285,2731 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="49"/>
       <c r="B61" s="49" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C61" s="49" t="s">
         <v>545</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="E61" s="49" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F61" s="49" t="s">
         <v>232</v>
       </c>
       <c r="G61" s="49"/>
     </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="146" t="s">
+        <v>899</v>
+      </c>
+      <c r="C63" s="146"/>
+      <c r="D63" s="146"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="146"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="146" t="s">
+        <v>901</v>
+      </c>
+      <c r="C64" s="146"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="146"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="146" t="s">
+        <v>900</v>
+      </c>
+      <c r="C65" s="146"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="146"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="C66" s="146"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="146"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="48"/>
+      <c r="B67" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" s="48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="49"/>
+      <c r="B68" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>909</v>
+      </c>
+      <c r="E68" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="F68" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G68" s="49" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="49"/>
+      <c r="B69" s="49" t="s">
+        <v>903</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>910</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G69" s="49"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="49"/>
+      <c r="B70" s="49" t="s">
+        <v>904</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>911</v>
+      </c>
+      <c r="E70" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="F70" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G70" s="49"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="49"/>
+      <c r="B71" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="D71" s="51" t="s">
+        <v>912</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="F71" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71" s="49"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="49"/>
+      <c r="B72" s="49" t="s">
+        <v>905</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>913</v>
+      </c>
+      <c r="E72" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="F72" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G72" s="49"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="49"/>
+      <c r="B73" s="49" t="s">
+        <v>906</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>914</v>
+      </c>
+      <c r="E73" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="F73" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G73" s="49"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="49"/>
+      <c r="B74" s="49" t="s">
+        <v>907</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D74" s="51" t="s">
+        <v>915</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="F74" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G74" s="49"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="49"/>
+      <c r="B75" s="49" t="s">
+        <v>908</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>916</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="F75" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="49"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="140" t="s">
+        <v>928</v>
+      </c>
+      <c r="C77" s="141"/>
+      <c r="D77" s="141"/>
+      <c r="E77" s="141"/>
+      <c r="F77" s="141"/>
+      <c r="G77" s="142"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="140" t="s">
+        <v>930</v>
+      </c>
+      <c r="C78" s="141"/>
+      <c r="D78" s="141"/>
+      <c r="E78" s="141"/>
+      <c r="F78" s="141"/>
+      <c r="G78" s="142"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="140" t="s">
+        <v>929</v>
+      </c>
+      <c r="C79" s="141"/>
+      <c r="D79" s="141"/>
+      <c r="E79" s="141"/>
+      <c r="F79" s="141"/>
+      <c r="G79" s="142"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="140" t="s">
+        <v>352</v>
+      </c>
+      <c r="C80" s="141"/>
+      <c r="D80" s="141"/>
+      <c r="E80" s="141"/>
+      <c r="F80" s="141"/>
+      <c r="G80" s="142"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="45"/>
+      <c r="B81" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" s="45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="46"/>
+      <c r="B82" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="C82" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D82" s="46" t="s">
+        <v>932</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F82" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G82" s="46"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="46"/>
+      <c r="B83" s="46" t="s">
+        <v>603</v>
+      </c>
+      <c r="C83" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D83" s="46" t="s">
+        <v>681</v>
+      </c>
+      <c r="E83" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F83" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G83" s="46"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="46"/>
+      <c r="B84" s="46" t="s">
+        <v>604</v>
+      </c>
+      <c r="C84" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>933</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F84" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G84" s="46"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="46"/>
+      <c r="B85" s="46" t="s">
+        <v>606</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D85" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="E85" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F85" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G85" s="46"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="46"/>
+      <c r="B86" s="46" t="s">
+        <v>607</v>
+      </c>
+      <c r="C86" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D86" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="E86" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F86" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G86" s="46"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="46"/>
+      <c r="B87" s="46" t="s">
+        <v>608</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D87" s="46" t="s">
+        <v>686</v>
+      </c>
+      <c r="E87" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F87" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G87" s="46"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="46"/>
+      <c r="B88" s="46" t="s">
+        <v>609</v>
+      </c>
+      <c r="C88" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D88" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="E88" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F88" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G88" s="46"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="46"/>
+      <c r="B89" s="46" t="s">
+        <v>610</v>
+      </c>
+      <c r="C89" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D89" s="46" t="s">
+        <v>934</v>
+      </c>
+      <c r="E89" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F89" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G89" s="46"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="46"/>
+      <c r="B90" s="46" t="s">
+        <v>922</v>
+      </c>
+      <c r="C90" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D90" s="46" t="s">
+        <v>935</v>
+      </c>
+      <c r="E90" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F90" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G90" s="46"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="46"/>
+      <c r="B91" s="46" t="s">
+        <v>923</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>931</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>936</v>
+      </c>
+      <c r="E91" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F91" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G91" s="46"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="46"/>
+      <c r="B92" s="46" t="s">
+        <v>924</v>
+      </c>
+      <c r="C92" s="46" t="s">
+        <v>931</v>
+      </c>
+      <c r="D92" s="46" t="s">
+        <v>939</v>
+      </c>
+      <c r="E92" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F92" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G92" s="46"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="46"/>
+      <c r="B93" s="46" t="s">
+        <v>925</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>931</v>
+      </c>
+      <c r="D93" s="46" t="s">
+        <v>937</v>
+      </c>
+      <c r="E93" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F93" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G93" s="46"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="46"/>
+      <c r="B94" s="46" t="s">
+        <v>926</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>931</v>
+      </c>
+      <c r="D94" s="46" t="s">
+        <v>938</v>
+      </c>
+      <c r="E94" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F94" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G94" s="46"/>
+      <c r="L94" s="52"/>
+    </row>
+    <row r="95" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="46"/>
+      <c r="B95" s="46" t="s">
+        <v>927</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>940</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="F95" s="53" t="s">
+        <v>941</v>
+      </c>
+      <c r="G95" s="46"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="140" t="s">
+        <v>954</v>
+      </c>
+      <c r="C97" s="141"/>
+      <c r="D97" s="141"/>
+      <c r="E97" s="141"/>
+      <c r="F97" s="141"/>
+      <c r="G97" s="142"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="140" t="s">
+        <v>956</v>
+      </c>
+      <c r="C98" s="141"/>
+      <c r="D98" s="141"/>
+      <c r="E98" s="141"/>
+      <c r="F98" s="141"/>
+      <c r="G98" s="142"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" s="140" t="s">
+        <v>955</v>
+      </c>
+      <c r="C99" s="141"/>
+      <c r="D99" s="141"/>
+      <c r="E99" s="141"/>
+      <c r="F99" s="141"/>
+      <c r="G99" s="142"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="140" t="s">
+        <v>352</v>
+      </c>
+      <c r="C100" s="141"/>
+      <c r="D100" s="141"/>
+      <c r="E100" s="141"/>
+      <c r="F100" s="141"/>
+      <c r="G100" s="142"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="45"/>
+      <c r="B101" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="F101" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G101" s="45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="46"/>
+      <c r="B102" s="46" t="s">
+        <v>792</v>
+      </c>
+      <c r="C102" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="E102" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="46"/>
+      <c r="B103" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="C103" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D103" s="46" t="s">
+        <v>943</v>
+      </c>
+      <c r="E103" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="46"/>
+      <c r="B104" s="46" t="s">
+        <v>794</v>
+      </c>
+      <c r="C104" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D104" s="46" t="s">
+        <v>944</v>
+      </c>
+      <c r="E104" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="46"/>
+      <c r="B105" s="46" t="s">
+        <v>795</v>
+      </c>
+      <c r="C105" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D105" s="46" t="s">
+        <v>947</v>
+      </c>
+      <c r="E105" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="46"/>
+      <c r="B106" s="46" t="s">
+        <v>796</v>
+      </c>
+      <c r="C106" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>623</v>
+      </c>
+      <c r="E106" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="46"/>
+      <c r="B107" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="C107" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D107" s="46" t="s">
+        <v>945</v>
+      </c>
+      <c r="E107" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="46"/>
+      <c r="B108" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="C108" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D108" s="46" t="s">
+        <v>626</v>
+      </c>
+      <c r="E108" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="46"/>
+      <c r="B109" s="46" t="s">
+        <v>799</v>
+      </c>
+      <c r="C109" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D109" s="46" t="s">
+        <v>787</v>
+      </c>
+      <c r="E109" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="46"/>
+      <c r="B110" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="C110" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D110" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="E110" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="46"/>
+      <c r="B111" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="C111" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D111" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="E111" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="46"/>
+      <c r="B112" s="46" t="s">
+        <v>908</v>
+      </c>
+      <c r="C112" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D112" s="46" t="s">
+        <v>946</v>
+      </c>
+      <c r="E112" s="46" t="s">
+        <v>949</v>
+      </c>
+      <c r="F112" s="46" t="s">
+        <v>953</v>
+      </c>
+      <c r="G112" s="46" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="46"/>
+      <c r="B113" s="46" t="s">
+        <v>942</v>
+      </c>
+      <c r="C113" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D113" s="46" t="s">
+        <v>957</v>
+      </c>
+      <c r="E113" s="46" t="s">
+        <v>949</v>
+      </c>
+      <c r="F113" s="46" t="s">
+        <v>950</v>
+      </c>
+      <c r="G113" s="46"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" s="140" t="s">
+        <v>959</v>
+      </c>
+      <c r="C115" s="141"/>
+      <c r="D115" s="141"/>
+      <c r="E115" s="141"/>
+      <c r="F115" s="141"/>
+      <c r="G115" s="142"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" s="140" t="s">
+        <v>969</v>
+      </c>
+      <c r="C116" s="141"/>
+      <c r="D116" s="141"/>
+      <c r="E116" s="141"/>
+      <c r="F116" s="141"/>
+      <c r="G116" s="142"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="140" t="s">
+        <v>968</v>
+      </c>
+      <c r="C117" s="141"/>
+      <c r="D117" s="141"/>
+      <c r="E117" s="141"/>
+      <c r="F117" s="141"/>
+      <c r="G117" s="142"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" s="140" t="s">
+        <v>303</v>
+      </c>
+      <c r="C118" s="141"/>
+      <c r="D118" s="141"/>
+      <c r="E118" s="141"/>
+      <c r="F118" s="141"/>
+      <c r="G118" s="142"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="45"/>
+      <c r="B119" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D119" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E119" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="F119" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119" s="45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="46"/>
+      <c r="B120" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="C120" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D120" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="46"/>
+      <c r="B121" s="46" t="s">
+        <v>960</v>
+      </c>
+      <c r="C121" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D121" s="46" t="s">
+        <v>964</v>
+      </c>
+      <c r="E121" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="46"/>
+      <c r="B122" s="46" t="s">
+        <v>961</v>
+      </c>
+      <c r="C122" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D122" s="46" t="s">
+        <v>965</v>
+      </c>
+      <c r="E122" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="46"/>
+      <c r="B123" s="46" t="s">
+        <v>962</v>
+      </c>
+      <c r="C123" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D123" s="46" t="s">
+        <v>966</v>
+      </c>
+      <c r="E123" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="46"/>
+      <c r="B124" s="46" t="s">
+        <v>963</v>
+      </c>
+      <c r="C124" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D124" s="46" t="s">
+        <v>967</v>
+      </c>
+      <c r="E124" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" s="140" t="s">
+        <v>970</v>
+      </c>
+      <c r="C126" s="141"/>
+      <c r="D126" s="141"/>
+      <c r="E126" s="141"/>
+      <c r="F126" s="141"/>
+      <c r="G126" s="142"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B127" s="140" t="s">
+        <v>971</v>
+      </c>
+      <c r="C127" s="141"/>
+      <c r="D127" s="141"/>
+      <c r="E127" s="141"/>
+      <c r="F127" s="141"/>
+      <c r="G127" s="142"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B128" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="C128" s="141"/>
+      <c r="D128" s="141"/>
+      <c r="E128" s="141"/>
+      <c r="F128" s="141"/>
+      <c r="G128" s="142"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B129" s="140" t="s">
+        <v>303</v>
+      </c>
+      <c r="C129" s="141"/>
+      <c r="D129" s="141"/>
+      <c r="E129" s="141"/>
+      <c r="F129" s="141"/>
+      <c r="G129" s="142"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="45"/>
+      <c r="B130" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E130" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="F130" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G130" s="45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="46"/>
+      <c r="B131" s="46" t="s">
+        <v>792</v>
+      </c>
+      <c r="C131" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D131" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E131" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F131" s="46" t="s">
+        <v>975</v>
+      </c>
+      <c r="G131" s="46"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="46"/>
+      <c r="B132" s="46" t="s">
+        <v>795</v>
+      </c>
+      <c r="C132" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D132" s="46" t="s">
+        <v>972</v>
+      </c>
+      <c r="E132" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F132" s="46"/>
+      <c r="G132" s="46"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="46"/>
+      <c r="B133" s="46" t="s">
+        <v>796</v>
+      </c>
+      <c r="C133" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D133" s="46" t="s">
+        <v>973</v>
+      </c>
+      <c r="E133" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="46"/>
+      <c r="B134" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="C134" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D134" s="46" t="s">
+        <v>945</v>
+      </c>
+      <c r="E134" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="46"/>
+      <c r="B135" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="C135" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D135" s="46" t="s">
+        <v>974</v>
+      </c>
+      <c r="E135" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F135" s="46"/>
+      <c r="G135" s="46"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="46"/>
+      <c r="B136" s="46" t="s">
+        <v>799</v>
+      </c>
+      <c r="C136" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D136" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E136" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F136" s="46"/>
+      <c r="G136" s="46"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="46"/>
+      <c r="B137" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="C137" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D137" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E137" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F137" s="46"/>
+      <c r="G137" s="46"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="46"/>
+      <c r="B138" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="C138" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D138" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E138" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F138" s="46"/>
+      <c r="G138" s="46"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B140" s="140" t="s">
+        <v>976</v>
+      </c>
+      <c r="C140" s="141"/>
+      <c r="D140" s="141"/>
+      <c r="E140" s="141"/>
+      <c r="F140" s="141"/>
+      <c r="G140" s="142"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B141" s="140" t="s">
+        <v>977</v>
+      </c>
+      <c r="C141" s="141"/>
+      <c r="D141" s="141"/>
+      <c r="E141" s="141"/>
+      <c r="F141" s="141"/>
+      <c r="G141" s="142"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="C142" s="141"/>
+      <c r="D142" s="141"/>
+      <c r="E142" s="141"/>
+      <c r="F142" s="141"/>
+      <c r="G142" s="142"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B143" s="140" t="s">
+        <v>303</v>
+      </c>
+      <c r="C143" s="141"/>
+      <c r="D143" s="141"/>
+      <c r="E143" s="141"/>
+      <c r="F143" s="141"/>
+      <c r="G143" s="142"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="45"/>
+      <c r="B144" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C144" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D144" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E144" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="F144" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G144" s="45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="46"/>
+      <c r="B145" s="46" t="s">
+        <v>792</v>
+      </c>
+      <c r="C145" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D145" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E145" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F145" s="46" t="s">
+        <v>978</v>
+      </c>
+      <c r="G145" s="46"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="46"/>
+      <c r="B146" s="46" t="s">
+        <v>795</v>
+      </c>
+      <c r="C146" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D146" s="46" t="s">
+        <v>972</v>
+      </c>
+      <c r="E146" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F146" s="46"/>
+      <c r="G146" s="46"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="46"/>
+      <c r="B147" s="46" t="s">
+        <v>796</v>
+      </c>
+      <c r="C147" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D147" s="46" t="s">
+        <v>973</v>
+      </c>
+      <c r="E147" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F147" s="46"/>
+      <c r="G147" s="46"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="46"/>
+      <c r="B148" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="C148" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D148" s="46" t="s">
+        <v>945</v>
+      </c>
+      <c r="E148" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F148" s="46"/>
+      <c r="G148" s="46"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="46"/>
+      <c r="B149" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="C149" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D149" s="46" t="s">
+        <v>974</v>
+      </c>
+      <c r="E149" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F149" s="46"/>
+      <c r="G149" s="46"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="46"/>
+      <c r="B150" s="46" t="s">
+        <v>799</v>
+      </c>
+      <c r="C150" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D150" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E150" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F150" s="46"/>
+      <c r="G150" s="46"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="46"/>
+      <c r="B151" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="C151" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D151" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E151" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F151" s="46"/>
+      <c r="G151" s="46"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="46"/>
+      <c r="B152" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="C152" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D152" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E152" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F152" s="46"/>
+      <c r="G152" s="46"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B154" s="140" t="s">
+        <v>979</v>
+      </c>
+      <c r="C154" s="141"/>
+      <c r="D154" s="141"/>
+      <c r="E154" s="141"/>
+      <c r="F154" s="141"/>
+      <c r="G154" s="142"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B155" s="140" t="s">
+        <v>980</v>
+      </c>
+      <c r="C155" s="141"/>
+      <c r="D155" s="141"/>
+      <c r="E155" s="141"/>
+      <c r="F155" s="141"/>
+      <c r="G155" s="142"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B156" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="C156" s="141"/>
+      <c r="D156" s="141"/>
+      <c r="E156" s="141"/>
+      <c r="F156" s="141"/>
+      <c r="G156" s="142"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B157" s="140" t="s">
+        <v>303</v>
+      </c>
+      <c r="C157" s="141"/>
+      <c r="D157" s="141"/>
+      <c r="E157" s="141"/>
+      <c r="F157" s="141"/>
+      <c r="G157" s="142"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="45"/>
+      <c r="B158" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C158" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E158" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="F158" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G158" s="45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="46"/>
+      <c r="B159" s="46" t="s">
+        <v>792</v>
+      </c>
+      <c r="C159" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D159" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E159" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F159" s="46" t="s">
+        <v>981</v>
+      </c>
+      <c r="G159" s="46"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="46"/>
+      <c r="B160" s="46" t="s">
+        <v>795</v>
+      </c>
+      <c r="C160" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D160" s="46" t="s">
+        <v>972</v>
+      </c>
+      <c r="E160" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F160" s="46"/>
+      <c r="G160" s="46"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="46"/>
+      <c r="B161" s="46" t="s">
+        <v>796</v>
+      </c>
+      <c r="C161" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D161" s="46" t="s">
+        <v>973</v>
+      </c>
+      <c r="E161" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F161" s="46"/>
+      <c r="G161" s="46"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="46"/>
+      <c r="B162" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="C162" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D162" s="46" t="s">
+        <v>945</v>
+      </c>
+      <c r="E162" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F162" s="46"/>
+      <c r="G162" s="46"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="46"/>
+      <c r="B163" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="C163" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D163" s="46" t="s">
+        <v>974</v>
+      </c>
+      <c r="E163" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F163" s="46"/>
+      <c r="G163" s="46"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="46"/>
+      <c r="B164" s="46" t="s">
+        <v>799</v>
+      </c>
+      <c r="C164" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D164" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E164" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F164" s="46"/>
+      <c r="G164" s="46"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="46"/>
+      <c r="B165" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="C165" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D165" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E165" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F165" s="46"/>
+      <c r="G165" s="46"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="46"/>
+      <c r="B166" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="C166" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D166" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E166" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="F166" s="46"/>
+      <c r="G166" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="40">
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:G100"/>
     <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B156:G156"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC86C6F-12DC-4682-9D82-B9DD22F04EA0}">
+  <dimension ref="A1:I73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:G73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="149" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>983</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>984</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>996</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52" t="s">
+        <v>985</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>992</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>995</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52" t="s">
+        <v>986</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>993</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>995</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52" t="s">
+        <v>797</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>994</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>995</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52" t="s">
+        <v>987</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>990</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>995</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52" t="s">
+        <v>988</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>991</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>995</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>997</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>998</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52" t="s">
+        <v>999</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>995</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>995</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>995</v>
+      </c>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52" t="s">
+        <v>961</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="52"/>
+      <c r="B31" s="52" t="s">
+        <v>963</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>967</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="52"/>
+      <c r="B32" s="52" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="62"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="62"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="62"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="62"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="52"/>
+      <c r="B42" s="52" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="52" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="52"/>
+      <c r="B44" s="52" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>844</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="B45" s="52" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="52"/>
+      <c r="B46" s="52" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>882</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="52"/>
+      <c r="B47" s="52" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>883</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="52"/>
+      <c r="B48" s="52" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="52"/>
+      <c r="B49" s="52" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="52"/>
+      <c r="B50" s="52" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="52"/>
+      <c r="B51" s="52" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="52"/>
+      <c r="B52" s="52" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="52"/>
+      <c r="B53" s="52" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="62"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="62"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="60"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="62"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="62"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="52"/>
+      <c r="B61" s="52" t="s">
+        <v>795</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>932</v>
+      </c>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="52"/>
+      <c r="B62" s="52" t="s">
+        <v>796</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>623</v>
+      </c>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="52"/>
+      <c r="B63" s="52" t="s">
+        <v>797</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>945</v>
+      </c>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="52"/>
+      <c r="B64" s="52" t="s">
+        <v>798</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>626</v>
+      </c>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="52"/>
+      <c r="B65" s="52" t="s">
+        <v>799</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="52"/>
+      <c r="B66" s="52" t="s">
+        <v>800</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>628</v>
+      </c>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="52"/>
+      <c r="B67" s="52" t="s">
+        <v>801</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>629</v>
+      </c>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="52"/>
+      <c r="B68" s="52" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>989</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="52"/>
+      <c r="B69" s="52" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>989</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="52"/>
+      <c r="B70" s="52" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>989</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="52"/>
+      <c r="B71" s="52" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>989</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="52"/>
+      <c r="B72" s="52" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>989</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="52"/>
+      <c r="B73" s="52" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
